--- a/results.xlsx
+++ b/results.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="model_summaries" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lvl_fcsts" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lvl_test_set_predictions" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="model_summaries" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="lvl_fcsts" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="lvl_test_set_predictions" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -560,17 +560,17 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'batch_size': 32, 'epochs': 20, 'validation_split': 0.2, 'activation': 'tanh', 'optimizer': 'Adam', 'learning_rate': 0.001, 'lstm_layer_sizes': (100, 100, 100, 100, 100, 100), 'dropout': (0, 0, 0, 0, 0, 0)}</t>
+          <t>{'batch_size': 32, 'epochs': 30, 'validation_split': 0.2, 'activation': 'tanh', 'optimizer': 'Adam', 'learning_rate': 0.001, 'lstm_layer_sizes': (100, 100, 100, 100, 100, 100), 'dropout': (0, 0, 0, 0, 0, 0)}</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4501</v>
+        <v>4092</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>200</v>
+        <v>409</v>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
@@ -581,26 +581,24 @@
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.451169943629576</v>
+        <v>0.2312377881181198</v>
       </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="n">
-        <v>0.2089764733751936</v>
+        <v>0.1561323709865668</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.9084670335243578</v>
+        <v>0.9727438331346561</v>
       </c>
       <c r="R2" t="n">
-        <v>1.652412873119274</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.349506636605929</v>
-      </c>
+        <v>0.06181078185697722</v>
+      </c>
+      <c r="S2" t="inlineStr"/>
       <c r="T2" t="n">
-        <v>1.520364855445921</v>
+        <v>0.05225150760636645</v>
       </c>
       <c r="U2" t="n">
-        <v>-4.737036779592301</v>
+        <v>-3.248119785965502</v>
       </c>
     </row>
   </sheetData>
@@ -636,1602 +634,1602 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45048</v>
+        <v>44524</v>
       </c>
       <c r="B2" t="n">
-        <v>4.824579373002052</v>
+        <v>0.01748325232416392</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45049</v>
+        <v>44525</v>
       </c>
       <c r="B3" t="n">
-        <v>4.731707465052605</v>
+        <v>0.01958958845585585</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45050</v>
+        <v>44526</v>
       </c>
       <c r="B4" t="n">
-        <v>4.913140023350716</v>
+        <v>0.009762851409614087</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45051</v>
+        <v>44527</v>
       </c>
       <c r="B5" t="n">
-        <v>4.892648301124573</v>
+        <v>0.01345483332872391</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45052</v>
+        <v>44528</v>
       </c>
       <c r="B6" t="n">
-        <v>4.748296610713005</v>
+        <v>0.02489328477531672</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45053</v>
+        <v>44529</v>
       </c>
       <c r="B7" t="n">
-        <v>4.777425811290741</v>
+        <v>0.01886502519249916</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45054</v>
+        <v>44530</v>
       </c>
       <c r="B8" t="n">
-        <v>4.897382891178132</v>
+        <v>0.01777752760797739</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45055</v>
+        <v>44531</v>
       </c>
       <c r="B9" t="n">
-        <v>4.810605661273003</v>
+        <v>0.01425674516707659</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45056</v>
+        <v>44532</v>
       </c>
       <c r="B10" t="n">
-        <v>4.860285813212395</v>
+        <v>0.01024145789444447</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45057</v>
+        <v>44533</v>
       </c>
       <c r="B11" t="n">
-        <v>4.776261802911759</v>
+        <v>0.01521539989858866</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45058</v>
+        <v>44534</v>
       </c>
       <c r="B12" t="n">
-        <v>4.77143836915493</v>
+        <v>0.01421010222285986</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45059</v>
+        <v>44535</v>
       </c>
       <c r="B13" t="n">
-        <v>4.808364306092263</v>
+        <v>0.01976616531610489</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45060</v>
+        <v>44536</v>
       </c>
       <c r="B14" t="n">
-        <v>4.81416782617569</v>
+        <v>0.02472202684730292</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45061</v>
+        <v>44537</v>
       </c>
       <c r="B15" t="n">
-        <v>4.770704863071442</v>
+        <v>0.01106425579637289</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45062</v>
+        <v>44538</v>
       </c>
       <c r="B16" t="n">
-        <v>4.919821381568909</v>
+        <v>0.03109073705971241</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45063</v>
+        <v>44539</v>
       </c>
       <c r="B17" t="n">
-        <v>4.724830650687218</v>
+        <v>0.007662516124546529</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45064</v>
+        <v>44540</v>
       </c>
       <c r="B18" t="n">
-        <v>4.727491909265519</v>
+        <v>0.01589020289480686</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45065</v>
+        <v>44541</v>
       </c>
       <c r="B19" t="n">
-        <v>4.657921678423881</v>
+        <v>0.01848402988165617</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45066</v>
+        <v>44542</v>
       </c>
       <c r="B20" t="n">
-        <v>4.686998507976532</v>
+        <v>0.01929018907248974</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45067</v>
+        <v>44543</v>
       </c>
       <c r="B21" t="n">
-        <v>4.702390913367272</v>
+        <v>0.02381749663501978</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45068</v>
+        <v>44544</v>
       </c>
       <c r="B22" t="n">
-        <v>4.672347713708878</v>
+        <v>0.0196914080157876</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45069</v>
+        <v>44545</v>
       </c>
       <c r="B23" t="n">
-        <v>4.872073969841003</v>
+        <v>0.01808890920132399</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45070</v>
+        <v>44546</v>
       </c>
       <c r="B24" t="n">
-        <v>4.805509773492814</v>
+        <v>0.02043403226882219</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45071</v>
+        <v>44547</v>
       </c>
       <c r="B25" t="n">
-        <v>4.735979756116867</v>
+        <v>0.02057701997458935</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45072</v>
+        <v>44548</v>
       </c>
       <c r="B26" t="n">
-        <v>4.850930727124214</v>
+        <v>0.03242682166397572</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45073</v>
+        <v>44549</v>
       </c>
       <c r="B27" t="n">
-        <v>4.802236272692681</v>
+        <v>0.02114801611751318</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45074</v>
+        <v>44550</v>
       </c>
       <c r="B28" t="n">
-        <v>4.69190922677517</v>
+        <v>0.02871808413416147</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45075</v>
+        <v>44551</v>
       </c>
       <c r="B29" t="n">
-        <v>4.852696690559387</v>
+        <v>0.02379448689520359</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45076</v>
+        <v>44552</v>
       </c>
       <c r="B30" t="n">
-        <v>4.715224308371544</v>
+        <v>0.02770567506551743</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45077</v>
+        <v>44553</v>
       </c>
       <c r="B31" t="n">
-        <v>4.743422988057137</v>
+        <v>0.01905317511409521</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45078</v>
+        <v>44554</v>
       </c>
       <c r="B32" t="n">
-        <v>4.751447288990021</v>
+        <v>0.01040899451822043</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45079</v>
+        <v>44555</v>
       </c>
       <c r="B33" t="n">
-        <v>4.807227730154992</v>
+        <v>0.02610346850007773</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45080</v>
+        <v>44556</v>
       </c>
       <c r="B34" t="n">
-        <v>4.765894833803177</v>
+        <v>0.0271787890419364</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45081</v>
+        <v>44557</v>
       </c>
       <c r="B35" t="n">
-        <v>4.847067740559578</v>
+        <v>0.02246142219752073</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45082</v>
+        <v>44558</v>
       </c>
       <c r="B36" t="n">
-        <v>4.702370027303696</v>
+        <v>0.01524538464844227</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45083</v>
+        <v>44559</v>
       </c>
       <c r="B37" t="n">
-        <v>4.842799190282822</v>
+        <v>0.01897826194763184</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45084</v>
+        <v>44560</v>
       </c>
       <c r="B38" t="n">
-        <v>4.868763996362687</v>
+        <v>0.01119510542601347</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45085</v>
+        <v>44561</v>
       </c>
       <c r="B39" t="n">
-        <v>4.791257061362267</v>
+        <v>0.0151563461124897</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45086</v>
+        <v>44562</v>
       </c>
       <c r="B40" t="n">
-        <v>4.777126236557961</v>
+        <v>0.01937229156494141</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45087</v>
+        <v>44563</v>
       </c>
       <c r="B41" t="n">
-        <v>4.718487522006035</v>
+        <v>0.02270032603293657</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45088</v>
+        <v>44564</v>
       </c>
       <c r="B42" t="n">
-        <v>4.723787282705308</v>
+        <v>0.01805230014026165</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45089</v>
+        <v>44565</v>
       </c>
       <c r="B43" t="n">
-        <v>4.710183285474778</v>
+        <v>0.03047138344496489</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45090</v>
+        <v>44566</v>
       </c>
       <c r="B44" t="n">
-        <v>4.805891333818436</v>
+        <v>0.006937660612165928</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45091</v>
+        <v>44567</v>
       </c>
       <c r="B45" t="n">
-        <v>4.882926929593086</v>
+        <v>0.03292682077735663</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45092</v>
+        <v>44568</v>
       </c>
       <c r="B46" t="n">
-        <v>4.758425416350365</v>
+        <v>0.02302088424563408</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45093</v>
+        <v>44569</v>
       </c>
       <c r="B47" t="n">
-        <v>4.819035525918007</v>
+        <v>0.02788172587752343</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45094</v>
+        <v>44570</v>
       </c>
       <c r="B48" t="n">
-        <v>4.961838218569756</v>
+        <v>0.01503134146332741</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45095</v>
+        <v>44571</v>
       </c>
       <c r="B49" t="n">
-        <v>4.717196326851846</v>
+        <v>0.01314664699137211</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45096</v>
+        <v>44572</v>
       </c>
       <c r="B50" t="n">
-        <v>4.834064763188363</v>
+        <v>0.01688686948269606</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45097</v>
+        <v>44573</v>
       </c>
       <c r="B51" t="n">
-        <v>4.887732906341554</v>
+        <v>0.02252069029957056</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45098</v>
+        <v>44574</v>
       </c>
       <c r="B52" t="n">
-        <v>4.971165248751641</v>
+        <v>0.02246637094765902</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45099</v>
+        <v>44575</v>
       </c>
       <c r="B53" t="n">
-        <v>4.759696660637856</v>
+        <v>0.02350975841283798</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45100</v>
+        <v>44576</v>
       </c>
       <c r="B54" t="n">
-        <v>4.790227721333504</v>
+        <v>0.019987319894135</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45101</v>
+        <v>44577</v>
       </c>
       <c r="B55" t="n">
-        <v>4.807403858900071</v>
+        <v>0.02141838543117047</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45102</v>
+        <v>44578</v>
       </c>
       <c r="B56" t="n">
-        <v>4.80898153603077</v>
+        <v>0.01214842174202204</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45103</v>
+        <v>44579</v>
       </c>
       <c r="B57" t="n">
-        <v>4.800028896331788</v>
+        <v>0.02056160870939493</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45104</v>
+        <v>44580</v>
       </c>
       <c r="B58" t="n">
-        <v>4.694002197384835</v>
+        <v>0.01114943664520979</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45105</v>
+        <v>44581</v>
       </c>
       <c r="B59" t="n">
-        <v>4.689954041838647</v>
+        <v>0.01199586775153876</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45106</v>
+        <v>44582</v>
       </c>
       <c r="B60" t="n">
-        <v>4.803485695719719</v>
+        <v>0.02372091807425022</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45107</v>
+        <v>44583</v>
       </c>
       <c r="B61" t="n">
-        <v>4.987171455025673</v>
+        <v>0.01293757203966379</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45108</v>
+        <v>44584</v>
       </c>
       <c r="B62" t="n">
-        <v>4.742534862756729</v>
+        <v>0.01286704260855913</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45109</v>
+        <v>44585</v>
       </c>
       <c r="B63" t="n">
-        <v>4.794746904373169</v>
+        <v>0.008249741829931736</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45110</v>
+        <v>44586</v>
       </c>
       <c r="B64" t="n">
-        <v>4.757120816707611</v>
+        <v>0.01249046999961138</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45111</v>
+        <v>44587</v>
       </c>
       <c r="B65" t="n">
-        <v>4.766969063282013</v>
+        <v>0.02841184612363577</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45112</v>
+        <v>44588</v>
       </c>
       <c r="B66" t="n">
-        <v>4.885653340220451</v>
+        <v>0.02601910594850779</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45113</v>
+        <v>44589</v>
       </c>
       <c r="B67" t="n">
-        <v>4.704947118163109</v>
+        <v>0.01856780793517828</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45114</v>
+        <v>44590</v>
       </c>
       <c r="B68" t="n">
-        <v>4.655437172055245</v>
+        <v>0.023876121789217</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45115</v>
+        <v>44591</v>
       </c>
       <c r="B69" t="n">
-        <v>4.800104959011079</v>
+        <v>0.02880053732544184</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45116</v>
+        <v>44592</v>
       </c>
       <c r="B70" t="n">
-        <v>4.650919859409333</v>
+        <v>0.01788297105580568</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45117</v>
+        <v>44593</v>
       </c>
       <c r="B71" t="n">
-        <v>4.830442122220993</v>
+        <v>0.02642640367150307</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45118</v>
+        <v>44594</v>
       </c>
       <c r="B72" t="n">
-        <v>4.774198135137558</v>
+        <v>0.0225455704331398</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45119</v>
+        <v>44595</v>
       </c>
       <c r="B73" t="n">
-        <v>4.834268012642861</v>
+        <v>0.0334270342066884</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45120</v>
+        <v>44596</v>
       </c>
       <c r="B74" t="n">
-        <v>4.620938071012497</v>
+        <v>0.01823043566197157</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45121</v>
+        <v>44597</v>
       </c>
       <c r="B75" t="n">
-        <v>4.72201352596283</v>
+        <v>0.02118614487349987</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45122</v>
+        <v>44598</v>
       </c>
       <c r="B76" t="n">
-        <v>4.776418915987015</v>
+        <v>0.01786981984972954</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45123</v>
+        <v>44599</v>
       </c>
       <c r="B77" t="n">
-        <v>4.7723439514637</v>
+        <v>0.01753168772906065</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45124</v>
+        <v>44600</v>
       </c>
       <c r="B78" t="n">
-        <v>4.624744945764542</v>
+        <v>0.01604686785489321</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45125</v>
+        <v>44601</v>
       </c>
       <c r="B79" t="n">
-        <v>4.835037056207657</v>
+        <v>0.02282566189765931</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45126</v>
+        <v>44602</v>
       </c>
       <c r="B80" t="n">
-        <v>4.600908024311066</v>
+        <v>0.02629393693059683</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45127</v>
+        <v>44603</v>
       </c>
       <c r="B81" t="n">
-        <v>4.614926002025604</v>
+        <v>0.01951496753841639</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45128</v>
+        <v>44604</v>
       </c>
       <c r="B82" t="n">
-        <v>4.708671383857728</v>
+        <v>0.02947220351547003</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45129</v>
+        <v>44605</v>
       </c>
       <c r="B83" t="n">
-        <v>4.681839650273323</v>
+        <v>0.02518572863191366</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45130</v>
+        <v>44606</v>
       </c>
       <c r="B84" t="n">
-        <v>4.629772252440453</v>
+        <v>0.01460526186972857</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45131</v>
+        <v>44607</v>
       </c>
       <c r="B85" t="n">
-        <v>4.665576264858246</v>
+        <v>0.01627838753163815</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45132</v>
+        <v>44608</v>
       </c>
       <c r="B86" t="n">
-        <v>4.604443380236626</v>
+        <v>0.02595116779208183</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45133</v>
+        <v>44609</v>
       </c>
       <c r="B87" t="n">
-        <v>4.484320458769798</v>
+        <v>0.02814593847841025</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45134</v>
+        <v>44610</v>
       </c>
       <c r="B88" t="n">
-        <v>4.588050314188004</v>
+        <v>0.03242744512856007</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45135</v>
+        <v>44611</v>
       </c>
       <c r="B89" t="n">
-        <v>4.628349817991257</v>
+        <v>0.03079441603273153</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45136</v>
+        <v>44612</v>
       </c>
       <c r="B90" t="n">
-        <v>4.609693575501442</v>
+        <v>0.02711624775081873</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45137</v>
+        <v>44613</v>
       </c>
       <c r="B91" t="n">
-        <v>4.595918748974801</v>
+        <v>0.02605912458151579</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45138</v>
+        <v>44614</v>
       </c>
       <c r="B92" t="n">
-        <v>4.711406834721566</v>
+        <v>0.01798919383436441</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45139</v>
+        <v>44615</v>
       </c>
       <c r="B93" t="n">
-        <v>4.599314448833466</v>
+        <v>0.02881688378751278</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45140</v>
+        <v>44616</v>
       </c>
       <c r="B94" t="n">
-        <v>4.678666215538979</v>
+        <v>0.04103778328746557</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45141</v>
+        <v>44617</v>
       </c>
       <c r="B95" t="n">
-        <v>4.715940357446671</v>
+        <v>0.03352111890912056</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45142</v>
+        <v>44618</v>
       </c>
       <c r="B96" t="n">
-        <v>4.591209720969201</v>
+        <v>0.03688356082886458</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45143</v>
+        <v>44619</v>
       </c>
       <c r="B97" t="n">
-        <v>4.748551607728005</v>
+        <v>0.0332723955065012</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45144</v>
+        <v>44620</v>
       </c>
       <c r="B98" t="n">
-        <v>4.68045618236065</v>
+        <v>0.04663261808454991</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45145</v>
+        <v>44621</v>
       </c>
       <c r="B99" t="n">
-        <v>4.642837888002396</v>
+        <v>0.02630521774291992</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45146</v>
+        <v>44622</v>
       </c>
       <c r="B100" t="n">
-        <v>4.720638163089752</v>
+        <v>0.04497396849095821</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45147</v>
+        <v>44623</v>
       </c>
       <c r="B101" t="n">
-        <v>4.643535233139992</v>
+        <v>0.03427558898925782</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45148</v>
+        <v>44624</v>
       </c>
       <c r="B102" t="n">
-        <v>4.611708301305772</v>
+        <v>0.04926833409816027</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45149</v>
+        <v>44625</v>
       </c>
       <c r="B103" t="n">
-        <v>4.618634681105614</v>
+        <v>0.04902237731963396</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45150</v>
+        <v>44626</v>
       </c>
       <c r="B104" t="n">
-        <v>4.621099860072136</v>
+        <v>0.03552448596805334</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>45151</v>
+        <v>44627</v>
       </c>
       <c r="B105" t="n">
-        <v>4.653790290355682</v>
+        <v>0.03383822858333588</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>45152</v>
+        <v>44628</v>
       </c>
       <c r="B106" t="n">
-        <v>4.655556565523148</v>
+        <v>0.04981456700712443</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>45153</v>
+        <v>44629</v>
       </c>
       <c r="B107" t="n">
-        <v>4.586478248238564</v>
+        <v>0.04511520270258189</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>45154</v>
+        <v>44630</v>
       </c>
       <c r="B108" t="n">
-        <v>4.676169551610947</v>
+        <v>0.02616593185812235</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>45155</v>
+        <v>44631</v>
       </c>
       <c r="B109" t="n">
-        <v>4.546793168783188</v>
+        <v>0.04675185568630696</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>45156</v>
+        <v>44632</v>
       </c>
       <c r="B110" t="n">
-        <v>4.554177483320236</v>
+        <v>0.05148763421922922</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>45157</v>
+        <v>44633</v>
       </c>
       <c r="B111" t="n">
-        <v>4.630406004190445</v>
+        <v>0.04358648702502251</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>45158</v>
+        <v>44634</v>
       </c>
       <c r="B112" t="n">
-        <v>4.621310279369355</v>
+        <v>0.03834268227219582</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>45159</v>
+        <v>44635</v>
       </c>
       <c r="B113" t="n">
-        <v>4.748658531904221</v>
+        <v>0.05023865930736066</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>45160</v>
+        <v>44636</v>
       </c>
       <c r="B114" t="n">
-        <v>4.708818209767342</v>
+        <v>0.04528673339635134</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>45161</v>
+        <v>44637</v>
       </c>
       <c r="B115" t="n">
-        <v>4.77412518978119</v>
+        <v>0.070570268034935</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>45162</v>
+        <v>44638</v>
       </c>
       <c r="B116" t="n">
-        <v>4.725560415983201</v>
+        <v>0.03848450098186731</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>45163</v>
+        <v>44639</v>
       </c>
       <c r="B117" t="n">
-        <v>4.742523016929627</v>
+        <v>0.04034180197864771</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>45164</v>
+        <v>44640</v>
       </c>
       <c r="B118" t="n">
-        <v>4.691277968883515</v>
+        <v>0.04506670884788037</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>45165</v>
+        <v>44641</v>
       </c>
       <c r="B119" t="n">
-        <v>4.839116073250771</v>
+        <v>0.04095885656774045</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>45166</v>
+        <v>44642</v>
       </c>
       <c r="B120" t="n">
-        <v>4.724878033995629</v>
+        <v>0.05121397223323584</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>45167</v>
+        <v>44643</v>
       </c>
       <c r="B121" t="n">
-        <v>4.753789333701135</v>
+        <v>0.04849683564156294</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>45168</v>
+        <v>44644</v>
       </c>
       <c r="B122" t="n">
-        <v>4.612854852676392</v>
+        <v>0.04101831950247288</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>45169</v>
+        <v>44645</v>
       </c>
       <c r="B123" t="n">
-        <v>4.796741991043091</v>
+        <v>0.05490420065820217</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>45170</v>
+        <v>44646</v>
       </c>
       <c r="B124" t="n">
-        <v>4.817403295636177</v>
+        <v>0.04872780978679658</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>45171</v>
+        <v>44647</v>
       </c>
       <c r="B125" t="n">
-        <v>4.732851834297181</v>
+        <v>0.04683465957641602</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>45172</v>
+        <v>44648</v>
       </c>
       <c r="B126" t="n">
-        <v>4.659676107764245</v>
+        <v>0.04715404879301787</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>45173</v>
+        <v>44649</v>
       </c>
       <c r="B127" t="n">
-        <v>4.675753700733186</v>
+        <v>0.05421091778203845</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>45174</v>
+        <v>44650</v>
       </c>
       <c r="B128" t="n">
-        <v>4.73358970463276</v>
+        <v>0.0399836215749383</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>45175</v>
+        <v>44651</v>
       </c>
       <c r="B129" t="n">
-        <v>4.686429908275604</v>
+        <v>0.05870936088263989</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>45176</v>
+        <v>44652</v>
       </c>
       <c r="B130" t="n">
-        <v>4.675263969302178</v>
+        <v>0.05491629976779223</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>45177</v>
+        <v>44653</v>
       </c>
       <c r="B131" t="n">
-        <v>4.684131506085397</v>
+        <v>0.05599680285900831</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>45178</v>
+        <v>44654</v>
       </c>
       <c r="B132" t="n">
-        <v>4.671431220769882</v>
+        <v>0.06054246366024018</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>45179</v>
+        <v>44655</v>
       </c>
       <c r="B133" t="n">
-        <v>4.596206477880478</v>
+        <v>0.06519444465637207</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>45180</v>
+        <v>44656</v>
       </c>
       <c r="B134" t="n">
-        <v>4.709616244435311</v>
+        <v>0.05694953467696905</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>45181</v>
+        <v>44657</v>
       </c>
       <c r="B135" t="n">
-        <v>4.623407925963402</v>
+        <v>0.06108778085559607</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>45182</v>
+        <v>44658</v>
       </c>
       <c r="B136" t="n">
-        <v>4.627241297960282</v>
+        <v>0.05617090534418822</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>45183</v>
+        <v>44659</v>
       </c>
       <c r="B137" t="n">
-        <v>4.867516755461693</v>
+        <v>0.06178736656904221</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>45184</v>
+        <v>44660</v>
       </c>
       <c r="B138" t="n">
-        <v>4.732535737752915</v>
+        <v>0.0577058556675911</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>45185</v>
+        <v>44661</v>
       </c>
       <c r="B139" t="n">
-        <v>4.66644381582737</v>
+        <v>0.05447338663041592</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>45186</v>
+        <v>44662</v>
       </c>
       <c r="B140" t="n">
-        <v>4.664811897277833</v>
+        <v>0.05697353806346656</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>45187</v>
+        <v>44663</v>
       </c>
       <c r="B141" t="n">
-        <v>4.578207678794861</v>
+        <v>0.0592896505445242</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>45188</v>
+        <v>44664</v>
       </c>
       <c r="B142" t="n">
-        <v>4.704910957217217</v>
+        <v>0.07182074315845967</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>45189</v>
+        <v>44665</v>
       </c>
       <c r="B143" t="n">
-        <v>4.691293555498124</v>
+        <v>0.07304750714451075</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>45190</v>
+        <v>44666</v>
       </c>
       <c r="B144" t="n">
-        <v>4.622983658313752</v>
+        <v>0.0564818972721696</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>45191</v>
+        <v>44667</v>
       </c>
       <c r="B145" t="n">
-        <v>4.515783287286759</v>
+        <v>0.05148823820054532</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>45192</v>
+        <v>44668</v>
       </c>
       <c r="B146" t="n">
-        <v>4.637777225971222</v>
+        <v>0.05966302789747716</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>45193</v>
+        <v>44669</v>
       </c>
       <c r="B147" t="n">
-        <v>4.749695041775704</v>
+        <v>0.07325993321835995</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>45194</v>
+        <v>44670</v>
       </c>
       <c r="B148" t="n">
-        <v>4.916433475017548</v>
+        <v>0.06555917143821717</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>45195</v>
+        <v>44671</v>
       </c>
       <c r="B149" t="n">
-        <v>4.683172305822373</v>
+        <v>0.0588568102568388</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>45196</v>
+        <v>44672</v>
       </c>
       <c r="B150" t="n">
-        <v>4.706441562771798</v>
+        <v>0.06854297552257776</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>45197</v>
+        <v>44673</v>
       </c>
       <c r="B151" t="n">
-        <v>4.817312893271446</v>
+        <v>0.05763501450419426</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>45198</v>
+        <v>44674</v>
       </c>
       <c r="B152" t="n">
-        <v>4.820560520291329</v>
+        <v>0.07943020634353161</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>45199</v>
+        <v>44675</v>
       </c>
       <c r="B153" t="n">
-        <v>4.832211826443673</v>
+        <v>0.07418571967631579</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>45200</v>
+        <v>44676</v>
       </c>
       <c r="B154" t="n">
-        <v>4.631464023590088</v>
+        <v>0.06315170191228391</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45201</v>
+        <v>44677</v>
       </c>
       <c r="B155" t="n">
-        <v>4.780535652637482</v>
+        <v>0.06708426322788001</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45202</v>
+        <v>44678</v>
       </c>
       <c r="B156" t="n">
-        <v>4.838096396923065</v>
+        <v>0.07998179715126753</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45203</v>
+        <v>44679</v>
       </c>
       <c r="B157" t="n">
-        <v>4.70503315627575</v>
+        <v>0.0768709621578455</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45204</v>
+        <v>44680</v>
       </c>
       <c r="B158" t="n">
-        <v>4.705161589980126</v>
+        <v>0.06616853013634683</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>45205</v>
+        <v>44681</v>
       </c>
       <c r="B159" t="n">
-        <v>4.869389019608498</v>
+        <v>0.06828075021505356</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45206</v>
+        <v>44682</v>
       </c>
       <c r="B160" t="n">
-        <v>4.833655770421029</v>
+        <v>0.06707202773541213</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45207</v>
+        <v>44683</v>
       </c>
       <c r="B161" t="n">
-        <v>4.790447492599488</v>
+        <v>0.06861535586416721</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45208</v>
+        <v>44684</v>
       </c>
       <c r="B162" t="n">
-        <v>4.701812961697579</v>
+        <v>0.08268589943647385</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45209</v>
+        <v>44685</v>
       </c>
       <c r="B163" t="n">
-        <v>4.659265868067742</v>
+        <v>0.0663469384238124</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45210</v>
+        <v>44686</v>
       </c>
       <c r="B164" t="n">
-        <v>4.582056325674057</v>
+        <v>0.0727569141983986</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45211</v>
+        <v>44687</v>
       </c>
       <c r="B165" t="n">
-        <v>4.621826819777489</v>
+        <v>0.07855542708188296</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45212</v>
+        <v>44688</v>
       </c>
       <c r="B166" t="n">
-        <v>4.667458192706109</v>
+        <v>0.08733737386763096</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45213</v>
+        <v>44689</v>
       </c>
       <c r="B167" t="n">
-        <v>4.583704454302788</v>
+        <v>0.07511522743850947</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>45214</v>
+        <v>44690</v>
       </c>
       <c r="B168" t="n">
-        <v>4.570040292739868</v>
+        <v>0.07098284572362901</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>45215</v>
+        <v>44691</v>
       </c>
       <c r="B169" t="n">
-        <v>4.54210159778595</v>
+        <v>0.07289460245519877</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>45216</v>
+        <v>44692</v>
       </c>
       <c r="B170" t="n">
-        <v>4.626378111243248</v>
+        <v>0.07935153290629388</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>45217</v>
+        <v>44693</v>
       </c>
       <c r="B171" t="n">
-        <v>4.459278380274773</v>
+        <v>0.08178228493779899</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>45218</v>
+        <v>44694</v>
       </c>
       <c r="B172" t="n">
-        <v>4.348605311512947</v>
+        <v>0.07799117214977742</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>45219</v>
+        <v>44695</v>
       </c>
       <c r="B173" t="n">
-        <v>4.288648592829705</v>
+        <v>0.0720678884163499</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>45220</v>
+        <v>44696</v>
       </c>
       <c r="B174" t="n">
-        <v>4.410094194412232</v>
+        <v>0.08123264245688916</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>45221</v>
+        <v>44697</v>
       </c>
       <c r="B175" t="n">
-        <v>4.221642671823502</v>
+        <v>0.09828081391751767</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>45222</v>
+        <v>44698</v>
       </c>
       <c r="B176" t="n">
-        <v>4.304041621685029</v>
+        <v>0.08783869784325361</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>45223</v>
+        <v>44699</v>
       </c>
       <c r="B177" t="n">
-        <v>4.32634450852871</v>
+        <v>0.08232580967247487</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>45224</v>
+        <v>44700</v>
       </c>
       <c r="B178" t="n">
-        <v>4.333312348723412</v>
+        <v>0.08371981803327799</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>45225</v>
+        <v>44701</v>
       </c>
       <c r="B179" t="n">
-        <v>4.320288797020913</v>
+        <v>0.08222050260752441</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>45226</v>
+        <v>44702</v>
       </c>
       <c r="B180" t="n">
-        <v>4.268910951018333</v>
+        <v>0.08527775861322881</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>45227</v>
+        <v>44703</v>
       </c>
       <c r="B181" t="n">
-        <v>4.267709534764291</v>
+        <v>0.07892200477421285</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45228</v>
+        <v>44704</v>
       </c>
       <c r="B182" t="n">
-        <v>4.123855992555619</v>
+        <v>0.09265055853873493</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>45229</v>
+        <v>44705</v>
       </c>
       <c r="B183" t="n">
-        <v>4.038928270339966</v>
+        <v>0.09259869407862426</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>45230</v>
+        <v>44706</v>
       </c>
       <c r="B184" t="n">
-        <v>4.115892791152</v>
+        <v>0.07873870618641376</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>45231</v>
+        <v>44707</v>
       </c>
       <c r="B185" t="n">
-        <v>4.040081679821014</v>
+        <v>0.08562169674783945</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>45232</v>
+        <v>44708</v>
       </c>
       <c r="B186" t="n">
-        <v>3.940346050262451</v>
+        <v>0.0831872234120965</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>45233</v>
+        <v>44709</v>
       </c>
       <c r="B187" t="n">
-        <v>4.021879319548607</v>
+        <v>0.08752326373010874</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>45234</v>
+        <v>44710</v>
       </c>
       <c r="B188" t="n">
-        <v>3.980698548555374</v>
+        <v>0.09526108268648387</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>45235</v>
+        <v>44711</v>
       </c>
       <c r="B189" t="n">
-        <v>3.940641884207726</v>
+        <v>0.1055097883567214</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>45236</v>
+        <v>44712</v>
       </c>
       <c r="B190" t="n">
-        <v>4.066772198677064</v>
+        <v>0.08160097364336252</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>45237</v>
+        <v>44713</v>
       </c>
       <c r="B191" t="n">
-        <v>3.904513358473778</v>
+        <v>0.07944976754486562</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>45238</v>
+        <v>44714</v>
       </c>
       <c r="B192" t="n">
-        <v>3.884718357920647</v>
+        <v>0.09084344644099475</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>45239</v>
+        <v>44715</v>
       </c>
       <c r="B193" t="n">
-        <v>4.173261508345604</v>
+        <v>0.08411745205521584</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>45240</v>
+        <v>44716</v>
       </c>
       <c r="B194" t="n">
-        <v>3.768266084194184</v>
+        <v>0.08770095113664866</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>45241</v>
+        <v>44717</v>
       </c>
       <c r="B195" t="n">
-        <v>3.964368452429772</v>
+        <v>0.08938549399375917</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>45242</v>
+        <v>44718</v>
       </c>
       <c r="B196" t="n">
-        <v>3.759229588508606</v>
+        <v>0.08590137906372548</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>45243</v>
+        <v>44719</v>
       </c>
       <c r="B197" t="n">
-        <v>3.915282773971558</v>
+        <v>0.1006986485421658</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>45244</v>
+        <v>44720</v>
       </c>
       <c r="B198" t="n">
-        <v>3.979761481285096</v>
+        <v>0.09312534630298615</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>45245</v>
+        <v>44721</v>
       </c>
       <c r="B199" t="n">
-        <v>3.57556783258915</v>
+        <v>0.09049796912819148</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>45246</v>
+        <v>44722</v>
       </c>
       <c r="B200" t="n">
-        <v>3.75149738073349</v>
+        <v>0.08400805350393058</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>45247</v>
+        <v>44723</v>
       </c>
       <c r="B201" t="n">
-        <v>3.785083417892456</v>
+        <v>0.08813889604061843</v>
       </c>
     </row>
   </sheetData>
@@ -2245,7 +2243,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C201"/>
+  <dimension ref="A1:C410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2272,2202 +2270,4501 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44791</v>
+        <v>44105</v>
       </c>
       <c r="B2" t="n">
-        <v>2.61</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>2.559539707899094</v>
+        <v>0.07339717335999013</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44791</v>
+        <v>44110</v>
       </c>
       <c r="B3" t="n">
-        <v>3.02</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>2.555622168183327</v>
+        <v>0.07430698353797198</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44796</v>
+        <v>44110</v>
       </c>
       <c r="B4" t="n">
-        <v>2.89</v>
+        <v>0.105</v>
       </c>
       <c r="C4" t="n">
-        <v>2.58253401696682</v>
+        <v>0.0767596347630024</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44796</v>
+        <v>44110</v>
       </c>
       <c r="B5" t="n">
-        <v>2.15</v>
+        <v>0.095</v>
       </c>
       <c r="C5" t="n">
-        <v>2.523386867046356</v>
+        <v>0.07262849997729064</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44796</v>
+        <v>44110</v>
       </c>
       <c r="B6" t="n">
-        <v>2.49</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>2.579089531004429</v>
+        <v>0.08182711593806745</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44798</v>
+        <v>44112</v>
       </c>
       <c r="B7" t="n">
-        <v>3.11</v>
+        <v>0.14</v>
       </c>
       <c r="C7" t="n">
-        <v>2.488358756303787</v>
+        <v>0.08049636974930764</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44798</v>
+        <v>44112</v>
       </c>
       <c r="B8" t="n">
-        <v>2.74</v>
+        <v>0.11</v>
       </c>
       <c r="C8" t="n">
-        <v>2.547980518639088</v>
+        <v>0.09058963790535927</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44798</v>
+        <v>44112</v>
       </c>
       <c r="B9" t="n">
-        <v>2.2</v>
+        <v>0.095</v>
       </c>
       <c r="C9" t="n">
-        <v>2.509960868954659</v>
+        <v>0.07642841920256616</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44803</v>
+        <v>44112</v>
       </c>
       <c r="B10" t="n">
-        <v>2.61</v>
+        <v>0.105</v>
       </c>
       <c r="C10" t="n">
-        <v>2.509641655087471</v>
+        <v>0.06958049852401019</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44803</v>
+        <v>44112</v>
       </c>
       <c r="B11" t="n">
-        <v>2.31</v>
+        <v>0.09</v>
       </c>
       <c r="C11" t="n">
-        <v>2.535434073209763</v>
+        <v>0.07696941111236812</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44803</v>
+        <v>44117</v>
       </c>
       <c r="B12" t="n">
-        <v>2.97</v>
+        <v>0.1</v>
       </c>
       <c r="C12" t="n">
-        <v>2.540656991899014</v>
+        <v>0.07808741949498654</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44805</v>
+        <v>44117</v>
       </c>
       <c r="B13" t="n">
-        <v>3.235</v>
+        <v>0.11</v>
       </c>
       <c r="C13" t="n">
-        <v>2.540822210013867</v>
+        <v>0.07511409740895034</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44805</v>
+        <v>44117</v>
       </c>
       <c r="B14" t="n">
-        <v>2.88</v>
+        <v>0.09</v>
       </c>
       <c r="C14" t="n">
-        <v>2.531834188699722</v>
+        <v>0.08947913058102132</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44810</v>
+        <v>44117</v>
       </c>
       <c r="B15" t="n">
-        <v>2.47</v>
+        <v>0.09</v>
       </c>
       <c r="C15" t="n">
-        <v>2.532165248394012</v>
+        <v>0.07665255472064018</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44810</v>
+        <v>44119</v>
       </c>
       <c r="B16" t="n">
-        <v>3.1</v>
+        <v>0.095</v>
       </c>
       <c r="C16" t="n">
-        <v>2.528286363482476</v>
+        <v>0.07606454968452454</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44810</v>
+        <v>44119</v>
       </c>
       <c r="B17" t="n">
-        <v>2.73</v>
+        <v>0.115</v>
       </c>
       <c r="C17" t="n">
-        <v>2.550296066105366</v>
+        <v>0.07166672792285682</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44812</v>
+        <v>44119</v>
       </c>
       <c r="B18" t="n">
-        <v>3.46</v>
+        <v>0.105</v>
       </c>
       <c r="C18" t="n">
-        <v>2.502327636182308</v>
+        <v>0.08049403175711632</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44812</v>
+        <v>44119</v>
       </c>
       <c r="B19" t="n">
-        <v>3.32</v>
+        <v>0.11</v>
       </c>
       <c r="C19" t="n">
-        <v>2.535804722905159</v>
+        <v>0.07579213462769986</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44812</v>
+        <v>44124</v>
       </c>
       <c r="B20" t="n">
-        <v>2.965</v>
+        <v>0.095</v>
       </c>
       <c r="C20" t="n">
-        <v>2.560665061473847</v>
+        <v>0.08717940352857113</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44817</v>
+        <v>44124</v>
       </c>
       <c r="B21" t="n">
-        <v>2.765</v>
+        <v>0.09</v>
       </c>
       <c r="C21" t="n">
-        <v>2.501113594770432</v>
+        <v>0.07921068836003542</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44817</v>
+        <v>44124</v>
       </c>
       <c r="B22" t="n">
-        <v>2.5</v>
+        <v>0.12</v>
       </c>
       <c r="C22" t="n">
-        <v>2.555018186867237</v>
+        <v>0.07028238326311112</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44817</v>
+        <v>44124</v>
       </c>
       <c r="B23" t="n">
-        <v>3.195</v>
+        <v>0.105</v>
       </c>
       <c r="C23" t="n">
-        <v>2.586273089945316</v>
+        <v>0.06990269333124162</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44819</v>
+        <v>44126</v>
       </c>
       <c r="B24" t="n">
-        <v>3.465</v>
+        <v>0.1</v>
       </c>
       <c r="C24" t="n">
-        <v>2.446636506319046</v>
+        <v>0.09624409150332214</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44819</v>
+        <v>44126</v>
       </c>
       <c r="B25" t="n">
-        <v>3.075</v>
+        <v>0.105</v>
       </c>
       <c r="C25" t="n">
-        <v>2.486564425230026</v>
+        <v>0.07653056997805835</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44824</v>
+        <v>44126</v>
       </c>
       <c r="B26" t="n">
-        <v>3.55</v>
+        <v>0.09</v>
       </c>
       <c r="C26" t="n">
-        <v>2.522647438049316</v>
+        <v>0.07251734793186189</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44824</v>
+        <v>44126</v>
       </c>
       <c r="B27" t="n">
-        <v>2.925</v>
+        <v>0.115</v>
       </c>
       <c r="C27" t="n">
-        <v>2.601172958314419</v>
+        <v>0.07710057247430087</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44824</v>
+        <v>44131</v>
       </c>
       <c r="B28" t="n">
-        <v>2.67</v>
+        <v>0.09</v>
       </c>
       <c r="C28" t="n">
-        <v>2.555303577780724</v>
+        <v>0.08263534035533668</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44826</v>
+        <v>44131</v>
       </c>
       <c r="B29" t="n">
-        <v>3.27</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>2.53820303529501</v>
+        <v>0.07357715979218483</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44826</v>
+        <v>44131</v>
       </c>
       <c r="B30" t="n">
-        <v>3.78</v>
+        <v>0.115</v>
       </c>
       <c r="C30" t="n">
-        <v>2.479893977642059</v>
+        <v>0.08254922430962325</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44831</v>
+        <v>44131</v>
       </c>
       <c r="B31" t="n">
-        <v>2.99</v>
+        <v>0.1</v>
       </c>
       <c r="C31" t="n">
-        <v>2.529933868646622</v>
+        <v>0.09209072630852462</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44831</v>
+        <v>44133</v>
       </c>
       <c r="B32" t="n">
-        <v>2.66</v>
+        <v>0.08</v>
       </c>
       <c r="C32" t="n">
-        <v>2.605662682652474</v>
+        <v>0.09012648165225984</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44831</v>
+        <v>44133</v>
       </c>
       <c r="B33" t="n">
-        <v>3.59</v>
+        <v>0.11</v>
       </c>
       <c r="C33" t="n">
-        <v>2.509767127335072</v>
+        <v>0.07854299675673247</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44833</v>
+        <v>44133</v>
       </c>
       <c r="B34" t="n">
-        <v>3.85</v>
+        <v>0.1</v>
       </c>
       <c r="C34" t="n">
-        <v>2.575986859500409</v>
+        <v>0.08976919747889042</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44833</v>
+        <v>44133</v>
       </c>
       <c r="B35" t="n">
-        <v>3.27</v>
+        <v>0.1</v>
       </c>
       <c r="C35" t="n">
-        <v>2.621686034202576</v>
+        <v>0.06522828709334136</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44838</v>
+        <v>44138</v>
       </c>
       <c r="B36" t="n">
-        <v>3.065</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>2.536037119328976</v>
+        <v>0.07456987127661706</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44838</v>
+        <v>44138</v>
       </c>
       <c r="B37" t="n">
-        <v>2.66</v>
+        <v>0.08</v>
       </c>
       <c r="C37" t="n">
-        <v>2.555366391837597</v>
+        <v>0.09610038291662933</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44838</v>
+        <v>44138</v>
       </c>
       <c r="B38" t="n">
-        <v>3.59</v>
+        <v>0.105</v>
       </c>
       <c r="C38" t="n">
-        <v>2.588855324387551</v>
+        <v>0.06854496281594039</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44840</v>
+        <v>44138</v>
       </c>
       <c r="B39" t="n">
-        <v>3.85</v>
+        <v>0.095</v>
       </c>
       <c r="C39" t="n">
-        <v>2.546528937220573</v>
+        <v>0.09705215031281114</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44840</v>
+        <v>44140</v>
       </c>
       <c r="B40" t="n">
-        <v>3.34</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>2.566526252031327</v>
+        <v>0.08638676572591067</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44840</v>
+        <v>44140</v>
       </c>
       <c r="B41" t="n">
-        <v>3.955</v>
+        <v>0.095</v>
       </c>
       <c r="C41" t="n">
-        <v>2.552797561883926</v>
+        <v>0.07256188668310642</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44845</v>
+        <v>44140</v>
       </c>
       <c r="B42" t="n">
-        <v>3.23</v>
+        <v>0.105</v>
       </c>
       <c r="C42" t="n">
-        <v>2.598012304604054</v>
+        <v>0.08093616556376219</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44845</v>
+        <v>44140</v>
       </c>
       <c r="B43" t="n">
-        <v>2.92</v>
+        <v>0.135</v>
       </c>
       <c r="C43" t="n">
-        <v>2.614392277896405</v>
+        <v>0.0847033528983593</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44845</v>
+        <v>44140</v>
       </c>
       <c r="B44" t="n">
-        <v>3.7</v>
+        <v>0.11</v>
       </c>
       <c r="C44" t="n">
-        <v>2.564804866313934</v>
+        <v>0.08835280284285546</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44847</v>
+        <v>44145</v>
       </c>
       <c r="B45" t="n">
-        <v>4.03</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>2.553127374649048</v>
+        <v>0.08573288775980473</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44847</v>
+        <v>44145</v>
       </c>
       <c r="B46" t="n">
-        <v>3.51</v>
+        <v>0.08</v>
       </c>
       <c r="C46" t="n">
-        <v>2.60086855173111</v>
+        <v>0.08775310784578325</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44852</v>
+        <v>44145</v>
       </c>
       <c r="B47" t="n">
-        <v>3.48</v>
+        <v>0.105</v>
       </c>
       <c r="C47" t="n">
-        <v>2.575961141586304</v>
+        <v>0.08278078295290471</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44852</v>
+        <v>44145</v>
       </c>
       <c r="B48" t="n">
-        <v>3.25</v>
+        <v>0.1</v>
       </c>
       <c r="C48" t="n">
-        <v>2.564290819764138</v>
+        <v>0.07036744721233845</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44852</v>
+        <v>44147</v>
       </c>
       <c r="B49" t="n">
-        <v>3.89</v>
+        <v>0.095</v>
       </c>
       <c r="C49" t="n">
-        <v>2.626436522603035</v>
+        <v>0.07142047889530659</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44854</v>
+        <v>44147</v>
       </c>
       <c r="B50" t="n">
-        <v>3.82</v>
+        <v>0.11</v>
       </c>
       <c r="C50" t="n">
-        <v>2.604325662851334</v>
+        <v>0.07814984388649464</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44854</v>
+        <v>44147</v>
       </c>
       <c r="B51" t="n">
-        <v>4.245</v>
+        <v>0.1</v>
       </c>
       <c r="C51" t="n">
-        <v>2.577142451107502</v>
+        <v>0.07916007082909346</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44859</v>
+        <v>44147</v>
       </c>
       <c r="B52" t="n">
-        <v>3.69</v>
+        <v>0.1</v>
       </c>
       <c r="C52" t="n">
-        <v>2.578164465427399</v>
+        <v>0.07010720919817687</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44859</v>
+        <v>44152</v>
       </c>
       <c r="B53" t="n">
-        <v>3.43</v>
+        <v>0.095</v>
       </c>
       <c r="C53" t="n">
-        <v>2.617905033230782</v>
+        <v>0.07565614141523838</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44859</v>
+        <v>44152</v>
       </c>
       <c r="B54" t="n">
-        <v>4.14</v>
+        <v>0.1</v>
       </c>
       <c r="C54" t="n">
-        <v>2.568856762647629</v>
+        <v>0.06926864933222533</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44861</v>
+        <v>44152</v>
       </c>
       <c r="B55" t="n">
-        <v>4.39</v>
+        <v>0.09</v>
       </c>
       <c r="C55" t="n">
-        <v>2.556193573474884</v>
+        <v>0.07999950744211674</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44861</v>
+        <v>44152</v>
       </c>
       <c r="B56" t="n">
-        <v>4</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>2.578960317969322</v>
+        <v>0.1005416133999825</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44866</v>
+        <v>44154</v>
       </c>
       <c r="B57" t="n">
-        <v>4.18</v>
+        <v>0.1</v>
       </c>
       <c r="C57" t="n">
-        <v>2.590071547925473</v>
+        <v>0.08319332167506219</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44866</v>
+        <v>44154</v>
       </c>
       <c r="B58" t="n">
-        <v>3.82</v>
+        <v>0.09</v>
       </c>
       <c r="C58" t="n">
-        <v>2.568086160421372</v>
+        <v>0.08104425873607397</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44866</v>
+        <v>44154</v>
       </c>
       <c r="B59" t="n">
-        <v>3.6</v>
+        <v>0.095</v>
       </c>
       <c r="C59" t="n">
-        <v>2.648961362838745</v>
+        <v>0.07055322017520667</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44868</v>
+        <v>44154</v>
       </c>
       <c r="B60" t="n">
-        <v>4.505</v>
+        <v>0.095</v>
       </c>
       <c r="C60" t="n">
-        <v>2.58386028200388</v>
+        <v>0.07479926727712155</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44868</v>
+        <v>44159</v>
       </c>
       <c r="B61" t="n">
-        <v>4.44</v>
+        <v>0.09</v>
       </c>
       <c r="C61" t="n">
-        <v>2.647751841545105</v>
+        <v>0.07782805822789669</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44868</v>
+        <v>44159</v>
       </c>
       <c r="B62" t="n">
-        <v>4.07</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>2.639044535160065</v>
+        <v>0.07351064391434194</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44873</v>
+        <v>44159</v>
       </c>
       <c r="B63" t="n">
-        <v>3.88</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>2.650134723186493</v>
+        <v>0.08067976575344801</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44873</v>
+        <v>44159</v>
       </c>
       <c r="B64" t="n">
-        <v>3.62</v>
+        <v>0.09</v>
       </c>
       <c r="C64" t="n">
-        <v>2.606202291250229</v>
+        <v>0.09613650489598513</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44873</v>
+        <v>44162</v>
       </c>
       <c r="B65" t="n">
-        <v>4.28</v>
+        <v>0.075</v>
       </c>
       <c r="C65" t="n">
-        <v>2.611160705089569</v>
+        <v>0.08489169765263796</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44875</v>
+        <v>44162</v>
       </c>
       <c r="B66" t="n">
-        <v>4.49</v>
+        <v>0.09</v>
       </c>
       <c r="C66" t="n">
-        <v>2.689746233820915</v>
+        <v>0.07100735567510129</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44875</v>
+        <v>44162</v>
       </c>
       <c r="B67" t="n">
-        <v>4.12</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>2.692017515301705</v>
+        <v>0.08767018705606461</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44880</v>
+        <v>44162</v>
       </c>
       <c r="B68" t="n">
-        <v>4.3</v>
+        <v>0.09</v>
       </c>
       <c r="C68" t="n">
-        <v>2.786025999188424</v>
+        <v>0.08040481787174941</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44880</v>
+        <v>44166</v>
       </c>
       <c r="B69" t="n">
-        <v>3.85</v>
+        <v>0.08</v>
       </c>
       <c r="C69" t="n">
-        <v>2.638596575856209</v>
+        <v>0.0924205780401826</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44880</v>
+        <v>44166</v>
       </c>
       <c r="B70" t="n">
-        <v>3.58</v>
+        <v>0.08</v>
       </c>
       <c r="C70" t="n">
-        <v>2.671279836297035</v>
+        <v>0.09197086524218322</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44882</v>
+        <v>44166</v>
       </c>
       <c r="B71" t="n">
-        <v>4.44</v>
+        <v>0.09</v>
       </c>
       <c r="C71" t="n">
-        <v>2.703379845619202</v>
+        <v>0.08876450378447771</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44882</v>
+        <v>44166</v>
       </c>
       <c r="B72" t="n">
-        <v>4.155</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>2.628547573685646</v>
+        <v>0.08038437992334367</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44887</v>
+        <v>44168</v>
       </c>
       <c r="B73" t="n">
-        <v>3.8</v>
+        <v>0.09</v>
       </c>
       <c r="C73" t="n">
-        <v>2.648486594557762</v>
+        <v>0.0712801603972912</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44887</v>
+        <v>44168</v>
       </c>
       <c r="B74" t="n">
-        <v>4.32</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>2.666236943006516</v>
+        <v>0.08476725801825524</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44887</v>
+        <v>44168</v>
       </c>
       <c r="B75" t="n">
-        <v>4.02</v>
+        <v>0.08</v>
       </c>
       <c r="C75" t="n">
-        <v>2.704083113670349</v>
+        <v>0.09154416218400002</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44887</v>
+        <v>44168</v>
       </c>
       <c r="B76" t="n">
-        <v>3.795</v>
+        <v>0.11</v>
       </c>
       <c r="C76" t="n">
-        <v>2.726809021234513</v>
+        <v>0.07990349389612675</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44890</v>
+        <v>44168</v>
       </c>
       <c r="B77" t="n">
-        <v>4.22</v>
+        <v>0.09</v>
       </c>
       <c r="C77" t="n">
-        <v>2.724679889678955</v>
+        <v>0.08843188542872668</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44890</v>
+        <v>44173</v>
       </c>
       <c r="B78" t="n">
-        <v>4.52</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>2.669075265526772</v>
+        <v>0.08829645723104478</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44894</v>
+        <v>44173</v>
       </c>
       <c r="B79" t="n">
-        <v>4.4</v>
+        <v>0.09</v>
       </c>
       <c r="C79" t="n">
-        <v>2.761039097309113</v>
+        <v>0.0884130645915866</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44894</v>
+        <v>44173</v>
       </c>
       <c r="B80" t="n">
-        <v>4.12</v>
+        <v>0.075</v>
       </c>
       <c r="C80" t="n">
-        <v>2.784520020484925</v>
+        <v>0.09294385965913535</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44894</v>
+        <v>44173</v>
       </c>
       <c r="B81" t="n">
-        <v>3.97</v>
+        <v>0.075</v>
       </c>
       <c r="C81" t="n">
-        <v>2.766303320527077</v>
+        <v>0.09629318933933974</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44896</v>
+        <v>44175</v>
       </c>
       <c r="B82" t="n">
-        <v>4.555</v>
+        <v>0.09</v>
       </c>
       <c r="C82" t="n">
-        <v>2.696400159597397</v>
+        <v>0.09167596649378539</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44896</v>
+        <v>44175</v>
       </c>
       <c r="B83" t="n">
-        <v>4.55</v>
+        <v>0.08</v>
       </c>
       <c r="C83" t="n">
-        <v>2.65586654484272</v>
+        <v>0.08951443426311016</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44896</v>
+        <v>44175</v>
       </c>
       <c r="B84" t="n">
-        <v>4.285</v>
+        <v>0.08</v>
       </c>
       <c r="C84" t="n">
-        <v>2.756280815601349</v>
+        <v>0.09010760236531497</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44901</v>
+        <v>44175</v>
       </c>
       <c r="B85" t="n">
-        <v>4.43</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>2.729340287446976</v>
+        <v>0.09470972567796708</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44901</v>
+        <v>44180</v>
       </c>
       <c r="B86" t="n">
-        <v>4.08</v>
+        <v>0.075</v>
       </c>
       <c r="C86" t="n">
-        <v>2.679729340076447</v>
+        <v>0.09271467797458173</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44901</v>
+        <v>44180</v>
       </c>
       <c r="B87" t="n">
-        <v>3.95</v>
+        <v>0.065</v>
       </c>
       <c r="C87" t="n">
-        <v>2.666784033179283</v>
+        <v>0.08673071360215545</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44903</v>
+        <v>44180</v>
       </c>
       <c r="B88" t="n">
-        <v>4.27</v>
+        <v>0.09</v>
       </c>
       <c r="C88" t="n">
-        <v>2.75332590520382</v>
+        <v>0.09104233164340259</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44903</v>
+        <v>44180</v>
       </c>
       <c r="B89" t="n">
-        <v>4.57</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>2.656543315649033</v>
+        <v>0.07928279593586922</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44908</v>
+        <v>44182</v>
       </c>
       <c r="B90" t="n">
-        <v>4.4</v>
+        <v>0.075</v>
       </c>
       <c r="C90" t="n">
-        <v>2.785402222871781</v>
+        <v>0.09890383038669825</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44908</v>
+        <v>44182</v>
       </c>
       <c r="B91" t="n">
-        <v>3.94</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>2.661357085704804</v>
+        <v>0.0820362688228488</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44908</v>
+        <v>44182</v>
       </c>
       <c r="B92" t="n">
-        <v>3.65</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>2.707638420462608</v>
+        <v>0.08444179002195597</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44910</v>
+        <v>44182</v>
       </c>
       <c r="B93" t="n">
-        <v>4.63</v>
+        <v>0.075</v>
       </c>
       <c r="C93" t="n">
-        <v>2.693669384717941</v>
+        <v>0.08548461247235538</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44910</v>
+        <v>44186</v>
       </c>
       <c r="B94" t="n">
-        <v>4.27</v>
+        <v>0.06</v>
       </c>
       <c r="C94" t="n">
-        <v>2.668458970785141</v>
+        <v>0.08552326727658512</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44915</v>
+        <v>44187</v>
       </c>
       <c r="B95" t="n">
-        <v>4.44</v>
+        <v>0.08</v>
       </c>
       <c r="C95" t="n">
-        <v>2.68587763607502</v>
+        <v>0.09940883670002224</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44915</v>
+        <v>44187</v>
       </c>
       <c r="B96" t="n">
-        <v>4.06</v>
+        <v>0.075</v>
       </c>
       <c r="C96" t="n">
-        <v>2.753571238517762</v>
+        <v>0.1070956679433584</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44915</v>
+        <v>44187</v>
       </c>
       <c r="B97" t="n">
-        <v>3.78</v>
+        <v>0.09</v>
       </c>
       <c r="C97" t="n">
-        <v>2.837069979906083</v>
+        <v>0.09336927682161332</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44917</v>
+        <v>44187</v>
       </c>
       <c r="B98" t="n">
-        <v>4.29</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>2.729399204850197</v>
+        <v>0.09757530529052019</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44917</v>
+        <v>44189</v>
       </c>
       <c r="B99" t="n">
-        <v>4.55</v>
+        <v>0.09</v>
       </c>
       <c r="C99" t="n">
-        <v>2.689820426106453</v>
+        <v>0.09902577616274358</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44922</v>
+        <v>44189</v>
       </c>
       <c r="B100" t="n">
-        <v>3.985</v>
+        <v>0.09</v>
       </c>
       <c r="C100" t="n">
-        <v>2.761315603852272</v>
+        <v>0.09984865199774505</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44922</v>
+        <v>44189</v>
       </c>
       <c r="B101" t="n">
-        <v>3.61</v>
+        <v>0.09</v>
       </c>
       <c r="C101" t="n">
-        <v>2.592190859913826</v>
+        <v>0.09002437958493829</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44922</v>
+        <v>44189</v>
       </c>
       <c r="B102" t="n">
-        <v>4.425</v>
+        <v>0.08</v>
       </c>
       <c r="C102" t="n">
-        <v>2.776377573013306</v>
+        <v>0.09831115910783411</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44924</v>
+        <v>44194</v>
       </c>
       <c r="B103" t="n">
-        <v>4.35</v>
+        <v>0.095</v>
       </c>
       <c r="C103" t="n">
-        <v>2.74680415391922</v>
+        <v>0.09641151122748852</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44924</v>
+        <v>44194</v>
       </c>
       <c r="B104" t="n">
-        <v>4.515</v>
+        <v>0.09</v>
       </c>
       <c r="C104" t="n">
-        <v>2.710048422813416</v>
+        <v>0.1009087950736284</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44924</v>
+        <v>44194</v>
       </c>
       <c r="B105" t="n">
-        <v>4.6</v>
+        <v>0.08</v>
       </c>
       <c r="C105" t="n">
-        <v>2.814492145180703</v>
+        <v>0.1047980743087828</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44929</v>
+        <v>44194</v>
       </c>
       <c r="B106" t="n">
-        <v>4.55</v>
+        <v>0.09</v>
       </c>
       <c r="C106" t="n">
-        <v>2.699618795514107</v>
+        <v>0.08896022295579314</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44929</v>
+        <v>44196</v>
       </c>
       <c r="B107" t="n">
-        <v>4.25</v>
+        <v>0.11</v>
       </c>
       <c r="C107" t="n">
-        <v>2.65495223402977</v>
+        <v>0.09428222380578519</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44929</v>
+        <v>44196</v>
       </c>
       <c r="B108" t="n">
-        <v>3.83</v>
+        <v>0.1</v>
       </c>
       <c r="C108" t="n">
-        <v>2.79108416736126</v>
+        <v>0.09202176528051496</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44931</v>
+        <v>44196</v>
       </c>
       <c r="B109" t="n">
-        <v>4.635</v>
+        <v>0.095</v>
       </c>
       <c r="C109" t="n">
-        <v>2.652356750965119</v>
+        <v>0.08887530513107778</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44931</v>
+        <v>44196</v>
       </c>
       <c r="B110" t="n">
-        <v>4.41</v>
+        <v>0.095</v>
       </c>
       <c r="C110" t="n">
-        <v>2.706114049553872</v>
+        <v>0.08598821599036456</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44936</v>
+        <v>44196</v>
       </c>
       <c r="B111" t="n">
-        <v>4.57</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>2.68506931424141</v>
+        <v>0.08712214220315219</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44936</v>
+        <v>44201</v>
       </c>
       <c r="B112" t="n">
-        <v>4.43</v>
+        <v>0.09</v>
       </c>
       <c r="C112" t="n">
-        <v>2.67329393863678</v>
+        <v>0.09135894449427724</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44936</v>
+        <v>44201</v>
       </c>
       <c r="B113" t="n">
-        <v>4.1</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="C113" t="n">
-        <v>2.662522341012955</v>
+        <v>0.08726795498281718</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44938</v>
+        <v>44201</v>
       </c>
       <c r="B114" t="n">
-        <v>4.56</v>
+        <v>0.08</v>
       </c>
       <c r="C114" t="n">
-        <v>2.588654724657536</v>
+        <v>0.1019725230708718</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44938</v>
+        <v>44201</v>
       </c>
       <c r="B115" t="n">
-        <v>4.71</v>
+        <v>0.09</v>
       </c>
       <c r="C115" t="n">
-        <v>2.755320991873742</v>
+        <v>0.08787544328719378</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44943</v>
+        <v>44203</v>
       </c>
       <c r="B116" t="n">
-        <v>4.68</v>
+        <v>0.09</v>
       </c>
       <c r="C116" t="n">
-        <v>2.64904085457325</v>
+        <v>0.1011454875580967</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44943</v>
+        <v>44203</v>
       </c>
       <c r="B117" t="n">
-        <v>4.465</v>
+        <v>0.09</v>
       </c>
       <c r="C117" t="n">
-        <v>2.790926430821419</v>
+        <v>0.0865438398346305</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44943</v>
+        <v>44203</v>
       </c>
       <c r="B118" t="n">
-        <v>4.37</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="C118" t="n">
-        <v>2.666466377973557</v>
+        <v>0.08913121785968543</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44945</v>
+        <v>44203</v>
       </c>
       <c r="B119" t="n">
-        <v>4.685</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="C119" t="n">
-        <v>2.590257340371609</v>
+        <v>0.1036375729180873</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44945</v>
+        <v>44208</v>
       </c>
       <c r="B120" t="n">
-        <v>4.56</v>
+        <v>0.09</v>
       </c>
       <c r="C120" t="n">
-        <v>2.661570622324944</v>
+        <v>0.0712227919138968</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44945</v>
+        <v>44208</v>
       </c>
       <c r="B121" t="n">
-        <v>4.49</v>
+        <v>0.09</v>
       </c>
       <c r="C121" t="n">
-        <v>2.621958799958229</v>
+        <v>0.08835060123354198</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44950</v>
+        <v>44208</v>
       </c>
       <c r="B122" t="n">
-        <v>4.525</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="C122" t="n">
-        <v>2.617704277634621</v>
+        <v>0.09681866282597185</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44950</v>
+        <v>44208</v>
       </c>
       <c r="B123" t="n">
-        <v>4.61</v>
+        <v>0.08</v>
       </c>
       <c r="C123" t="n">
-        <v>2.688640207648278</v>
+        <v>0.09188908422365785</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44950</v>
+        <v>44210</v>
       </c>
       <c r="B124" t="n">
-        <v>4.52</v>
+        <v>0.09</v>
       </c>
       <c r="C124" t="n">
-        <v>2.615203872919083</v>
+        <v>0.1053238692693412</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44950</v>
+        <v>44210</v>
       </c>
       <c r="B125" t="n">
-        <v>4.48</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="C125" t="n">
-        <v>2.622595045566559</v>
+        <v>0.09835500620305539</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44952</v>
+        <v>44210</v>
       </c>
       <c r="B126" t="n">
-        <v>4.685</v>
+        <v>0.09</v>
       </c>
       <c r="C126" t="n">
-        <v>2.540208409130574</v>
+        <v>0.1079242718592286</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44952</v>
+        <v>44210</v>
       </c>
       <c r="B127" t="n">
-        <v>4.575</v>
+        <v>0.09</v>
       </c>
       <c r="C127" t="n">
-        <v>2.527578731179238</v>
+        <v>0.1070758242346346</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44952</v>
+        <v>44215</v>
       </c>
       <c r="B128" t="n">
-        <v>4.47</v>
+        <v>0.09</v>
       </c>
       <c r="C128" t="n">
-        <v>2.577670058012009</v>
+        <v>0.08743580333888532</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44957</v>
+        <v>44215</v>
       </c>
       <c r="B129" t="n">
-        <v>4.62</v>
+        <v>0.09</v>
       </c>
       <c r="C129" t="n">
-        <v>2.611643422544003</v>
+        <v>0.1022432236000896</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44957</v>
+        <v>44215</v>
       </c>
       <c r="B130" t="n">
-        <v>4.525</v>
+        <v>0.075</v>
       </c>
       <c r="C130" t="n">
-        <v>2.597174368202686</v>
+        <v>0.1096666118316352</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44957</v>
+        <v>44215</v>
       </c>
       <c r="B131" t="n">
-        <v>4.5</v>
+        <v>0.08</v>
       </c>
       <c r="C131" t="n">
-        <v>2.554065377116204</v>
+        <v>0.1030652811378241</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44959</v>
+        <v>44217</v>
       </c>
       <c r="B132" t="n">
-        <v>4.68</v>
+        <v>0.095</v>
       </c>
       <c r="C132" t="n">
-        <v>2.653334655165672</v>
+        <v>0.09652498178184034</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44959</v>
+        <v>44217</v>
       </c>
       <c r="B133" t="n">
-        <v>4.595</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="C133" t="n">
-        <v>2.618615471124649</v>
+        <v>0.1017539013177157</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44964</v>
+        <v>44217</v>
       </c>
       <c r="B134" t="n">
-        <v>4.625</v>
+        <v>0.09</v>
       </c>
       <c r="C134" t="n">
-        <v>2.592405175864697</v>
+        <v>0.0983486156910658</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44964</v>
+        <v>44217</v>
       </c>
       <c r="B135" t="n">
-        <v>4.505</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="C135" t="n">
-        <v>2.475056515932083</v>
+        <v>0.1004938404262066</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44964</v>
+        <v>44222</v>
       </c>
       <c r="B136" t="n">
-        <v>4.49</v>
+        <v>0.08</v>
       </c>
       <c r="C136" t="n">
-        <v>2.57102361381054</v>
+        <v>0.09683310966938735</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44966</v>
+        <v>44222</v>
       </c>
       <c r="B137" t="n">
-        <v>4.755</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C137" t="n">
-        <v>2.526267896890641</v>
+        <v>0.09250553483143449</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44966</v>
+        <v>44222</v>
       </c>
       <c r="B138" t="n">
-        <v>4.59</v>
+        <v>0.09</v>
       </c>
       <c r="C138" t="n">
-        <v>2.521317120492458</v>
+        <v>0.08920865410938859</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44971</v>
+        <v>44222</v>
       </c>
       <c r="B139" t="n">
-        <v>4.6</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="C139" t="n">
-        <v>2.520531399250031</v>
+        <v>0.1075218644365668</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44971</v>
+        <v>44224</v>
       </c>
       <c r="B140" t="n">
-        <v>4.52</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C140" t="n">
-        <v>2.588162499368191</v>
+        <v>0.09664626512676479</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44971</v>
+        <v>44224</v>
       </c>
       <c r="B141" t="n">
-        <v>4.7</v>
+        <v>0.075</v>
       </c>
       <c r="C141" t="n">
-        <v>2.672015836238861</v>
+        <v>0.09504232455044985</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44973</v>
+        <v>44224</v>
       </c>
       <c r="B142" t="n">
-        <v>4.84</v>
+        <v>0.08</v>
       </c>
       <c r="C142" t="n">
-        <v>2.609544061422348</v>
+        <v>0.09750397704541684</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44973</v>
+        <v>44224</v>
       </c>
       <c r="B143" t="n">
-        <v>4.68</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="C143" t="n">
-        <v>2.592378678619862</v>
+        <v>0.1081742032244802</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44973</v>
+        <v>44224</v>
       </c>
       <c r="B144" t="n">
-        <v>4.54</v>
+        <v>0.09</v>
       </c>
       <c r="C144" t="n">
-        <v>2.607643897235394</v>
+        <v>0.09949531318619848</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44978</v>
+        <v>44229</v>
       </c>
       <c r="B145" t="n">
-        <v>4.8</v>
+        <v>0.065</v>
       </c>
       <c r="C145" t="n">
-        <v>2.607078570723534</v>
+        <v>0.1176634608395398</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44978</v>
+        <v>44229</v>
       </c>
       <c r="B146" t="n">
-        <v>4.65</v>
+        <v>0.055</v>
       </c>
       <c r="C146" t="n">
-        <v>2.588934192657471</v>
+        <v>0.1017999695055187</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44978</v>
+        <v>44229</v>
       </c>
       <c r="B147" t="n">
-        <v>4.51</v>
+        <v>0.08</v>
       </c>
       <c r="C147" t="n">
-        <v>2.563117771148682</v>
+        <v>0.1010979191586375</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44980</v>
+        <v>44229</v>
       </c>
       <c r="B148" t="n">
-        <v>4.795</v>
+        <v>0.075</v>
       </c>
       <c r="C148" t="n">
-        <v>2.601170464456082</v>
+        <v>0.106363282147795</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44980</v>
+        <v>44231</v>
       </c>
       <c r="B149" t="n">
-        <v>4.915</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C149" t="n">
-        <v>2.598097563385964</v>
+        <v>0.09147912703454496</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44980</v>
+        <v>44231</v>
       </c>
       <c r="B150" t="n">
-        <v>4.72</v>
+        <v>0.065</v>
       </c>
       <c r="C150" t="n">
-        <v>2.648757801651955</v>
+        <v>0.1061784443818033</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44985</v>
+        <v>44231</v>
       </c>
       <c r="B151" t="n">
-        <v>4.46</v>
+        <v>0.06</v>
       </c>
       <c r="C151" t="n">
-        <v>2.717363532781601</v>
+        <v>0.09845617307350041</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44985</v>
+        <v>44231</v>
       </c>
       <c r="B152" t="n">
-        <v>4.515</v>
+        <v>0.05</v>
       </c>
       <c r="C152" t="n">
-        <v>2.620785751342773</v>
+        <v>0.08338040001690389</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44985</v>
+        <v>44236</v>
       </c>
       <c r="B153" t="n">
-        <v>4.83</v>
+        <v>0.055</v>
       </c>
       <c r="C153" t="n">
-        <v>2.628993039131165</v>
+        <v>0.1035375653021038</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44985</v>
+        <v>44236</v>
       </c>
       <c r="B154" t="n">
-        <v>4.66</v>
+        <v>0.055</v>
       </c>
       <c r="C154" t="n">
-        <v>2.692379748225212</v>
+        <v>0.1160944829881191</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44987</v>
+        <v>44236</v>
       </c>
       <c r="B155" t="n">
-        <v>4.94</v>
+        <v>0.03</v>
       </c>
       <c r="C155" t="n">
-        <v>2.607580147981644</v>
+        <v>0.1029724238812924</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44987</v>
+        <v>44236</v>
       </c>
       <c r="B156" t="n">
-        <v>4.75</v>
+        <v>0.035</v>
       </c>
       <c r="C156" t="n">
-        <v>2.669771987199784</v>
+        <v>0.1109959747083485</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44992</v>
+        <v>44238</v>
       </c>
       <c r="B157" t="n">
-        <v>4.885</v>
+        <v>0.05</v>
       </c>
       <c r="C157" t="n">
-        <v>2.714155184030533</v>
+        <v>0.1133993332646787</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>44992</v>
+        <v>44238</v>
       </c>
       <c r="B158" t="n">
-        <v>4.655</v>
+        <v>0.035</v>
       </c>
       <c r="C158" t="n">
-        <v>2.647889315485954</v>
+        <v>0.1124744820035994</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>44992</v>
+        <v>44238</v>
       </c>
       <c r="B159" t="n">
-        <v>4.59</v>
+        <v>0.04</v>
       </c>
       <c r="C159" t="n">
-        <v>2.664756214618683</v>
+        <v>0.1025818622857332</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>44994</v>
+        <v>44238</v>
       </c>
       <c r="B160" t="n">
-        <v>4.97</v>
+        <v>0.035</v>
       </c>
       <c r="C160" t="n">
-        <v>2.602372660040856</v>
+        <v>0.1069309271685779</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>44994</v>
+        <v>44243</v>
       </c>
       <c r="B161" t="n">
-        <v>4.765</v>
+        <v>0.035</v>
       </c>
       <c r="C161" t="n">
-        <v>2.64290596306324</v>
+        <v>0.1086708706989885</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>44999</v>
+        <v>44243</v>
       </c>
       <c r="B162" t="n">
-        <v>5.045</v>
+        <v>0.03</v>
       </c>
       <c r="C162" t="n">
-        <v>2.625227936506271</v>
+        <v>0.09754932435229421</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>44999</v>
+        <v>44243</v>
       </c>
       <c r="B163" t="n">
-        <v>4.82</v>
+        <v>0.055</v>
       </c>
       <c r="C163" t="n">
-        <v>2.726187427043915</v>
+        <v>0.09345677617937327</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>44999</v>
+        <v>44243</v>
       </c>
       <c r="B164" t="n">
-        <v>4.64</v>
+        <v>0.045</v>
       </c>
       <c r="C164" t="n">
-        <v>2.736604273319245</v>
+        <v>0.1022931105084717</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45001</v>
+        <v>44245</v>
       </c>
       <c r="B165" t="n">
-        <v>4.75</v>
+        <v>0.04</v>
       </c>
       <c r="C165" t="n">
-        <v>2.650371951460838</v>
+        <v>0.1083345894888044</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45001</v>
+        <v>44245</v>
       </c>
       <c r="B166" t="n">
-        <v>4.7</v>
+        <v>0.05</v>
       </c>
       <c r="C166" t="n">
-        <v>2.552031012177467</v>
+        <v>0.08536695301532746</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45006</v>
+        <v>44245</v>
       </c>
       <c r="B167" t="n">
-        <v>4.75</v>
+        <v>0.06</v>
       </c>
       <c r="C167" t="n">
-        <v>2.61694458603859</v>
+        <v>0.104277471639216</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>45006</v>
+        <v>44245</v>
       </c>
       <c r="B168" t="n">
-        <v>4.45</v>
+        <v>0.04</v>
       </c>
       <c r="C168" t="n">
-        <v>2.641768451929093</v>
+        <v>0.0965932414121926</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>45006</v>
+        <v>44250</v>
       </c>
       <c r="B169" t="n">
-        <v>4.22</v>
+        <v>0.03</v>
       </c>
       <c r="C169" t="n">
-        <v>2.647788625955582</v>
+        <v>0.1065698534995318</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>45008</v>
+        <v>44250</v>
       </c>
       <c r="B170" t="n">
-        <v>4.39</v>
+        <v>0.025</v>
       </c>
       <c r="C170" t="n">
-        <v>2.586026665568352</v>
+        <v>0.1043866558745504</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>45008</v>
+        <v>44252</v>
       </c>
       <c r="B171" t="n">
-        <v>4.62</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C171" t="n">
-        <v>2.619112995862961</v>
+        <v>0.1078224230743945</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>45008</v>
+        <v>44252</v>
       </c>
       <c r="B172" t="n">
-        <v>4.675</v>
+        <v>0.045</v>
       </c>
       <c r="C172" t="n">
-        <v>2.602919438481331</v>
+        <v>0.09069831557571889</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>45013</v>
+        <v>44252</v>
       </c>
       <c r="B173" t="n">
-        <v>4.805</v>
+        <v>0.03</v>
       </c>
       <c r="C173" t="n">
-        <v>2.630323824286461</v>
+        <v>0.09433243218809367</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>45013</v>
+        <v>44252</v>
       </c>
       <c r="B174" t="n">
-        <v>4.15</v>
+        <v>0.025</v>
       </c>
       <c r="C174" t="n">
-        <v>2.618319325447083</v>
+        <v>0.09605143120512367</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>45013</v>
+        <v>44257</v>
       </c>
       <c r="B175" t="n">
-        <v>4.4</v>
+        <v>0.04</v>
       </c>
       <c r="C175" t="n">
-        <v>2.613583488464356</v>
+        <v>0.1120258213020861</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>45015</v>
+        <v>44257</v>
       </c>
       <c r="B176" t="n">
-        <v>4.05</v>
+        <v>0.035</v>
       </c>
       <c r="C176" t="n">
-        <v>2.548331529200077</v>
+        <v>0.1088782213814557</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>45015</v>
+        <v>44257</v>
       </c>
       <c r="B177" t="n">
-        <v>4.65</v>
+        <v>0.045</v>
       </c>
       <c r="C177" t="n">
-        <v>2.540447663664818</v>
+        <v>0.09666183225810529</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>45015</v>
+        <v>44259</v>
       </c>
       <c r="B178" t="n">
-        <v>4.675</v>
+        <v>0.04</v>
       </c>
       <c r="C178" t="n">
-        <v>2.580573064982891</v>
+        <v>0.1070447581633926</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>45016</v>
+        <v>44259</v>
       </c>
       <c r="B179" t="n">
-        <v>4.7</v>
+        <v>0.04</v>
       </c>
       <c r="C179" t="n">
-        <v>2.577155543863773</v>
+        <v>0.1066066963598132</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>45020</v>
+        <v>44259</v>
       </c>
       <c r="B180" t="n">
-        <v>4.78</v>
+        <v>0.06</v>
       </c>
       <c r="C180" t="n">
-        <v>2.5664077937603</v>
+        <v>0.09327298076823355</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>45020</v>
+        <v>44264</v>
       </c>
       <c r="B181" t="n">
-        <v>4.6</v>
+        <v>0.035</v>
       </c>
       <c r="C181" t="n">
-        <v>2.622191975712776</v>
+        <v>0.1104135711118579</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45020</v>
+        <v>44264</v>
       </c>
       <c r="B182" t="n">
-        <v>4.6</v>
+        <v>0.03</v>
       </c>
       <c r="C182" t="n">
-        <v>2.567978924512863</v>
+        <v>0.100152668915689</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>45022</v>
+        <v>44264</v>
       </c>
       <c r="B183" t="n">
-        <v>4.705</v>
+        <v>0.05</v>
       </c>
       <c r="C183" t="n">
-        <v>2.583683841526509</v>
+        <v>0.09018067436292768</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>45022</v>
+        <v>44266</v>
       </c>
       <c r="B184" t="n">
-        <v>4.78</v>
+        <v>0.06</v>
       </c>
       <c r="C184" t="n">
-        <v>2.572165177464485</v>
+        <v>0.1103366706520319</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>45027</v>
+        <v>44266</v>
       </c>
       <c r="B185" t="n">
-        <v>4.65</v>
+        <v>0.045</v>
       </c>
       <c r="C185" t="n">
-        <v>2.484111715555191</v>
+        <v>0.09668160777539016</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>45027</v>
+        <v>44266</v>
       </c>
       <c r="B186" t="n">
-        <v>4.75</v>
+        <v>0.03</v>
       </c>
       <c r="C186" t="n">
-        <v>2.470666234195233</v>
+        <v>0.09873420905321838</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>45027</v>
+        <v>44271</v>
       </c>
       <c r="B187" t="n">
-        <v>4.44</v>
+        <v>0.035</v>
       </c>
       <c r="C187" t="n">
-        <v>2.440426019728184</v>
+        <v>0.1006248069554567</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>45029</v>
+        <v>44271</v>
       </c>
       <c r="B188" t="n">
-        <v>4.795</v>
+        <v>0.03</v>
       </c>
       <c r="C188" t="n">
-        <v>2.625143768787384</v>
+        <v>0.108735866881907</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>45029</v>
+        <v>44271</v>
       </c>
       <c r="B189" t="n">
-        <v>4.98</v>
+        <v>0.05</v>
       </c>
       <c r="C189" t="n">
-        <v>2.454767263829708</v>
+        <v>0.1066234909370542</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>45034</v>
+        <v>44273</v>
       </c>
       <c r="B190" t="n">
-        <v>4.98</v>
+        <v>0.015</v>
       </c>
       <c r="C190" t="n">
-        <v>2.557609773278237</v>
+        <v>0.1048988320305944</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>45034</v>
+        <v>44273</v>
       </c>
       <c r="B191" t="n">
-        <v>4.79</v>
+        <v>0.055</v>
       </c>
       <c r="C191" t="n">
-        <v>2.539281005561352</v>
+        <v>0.09919241655617954</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>45034</v>
+        <v>44273</v>
       </c>
       <c r="B192" t="n">
-        <v>4.03</v>
+        <v>0.03</v>
       </c>
       <c r="C192" t="n">
-        <v>2.452667746841908</v>
+        <v>0.1034091705642641</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>45036</v>
+        <v>44278</v>
       </c>
       <c r="B193" t="n">
-        <v>4.87</v>
+        <v>0.01</v>
       </c>
       <c r="C193" t="n">
-        <v>2.541438348889351</v>
+        <v>0.110686541441828</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>45036</v>
+        <v>44278</v>
       </c>
       <c r="B194" t="n">
-        <v>4.53</v>
+        <v>0.005</v>
       </c>
       <c r="C194" t="n">
-        <v>2.669643553495407</v>
+        <v>0.1060431233420968</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>45036</v>
+        <v>44278</v>
       </c>
       <c r="B195" t="n">
-        <v>5.08</v>
+        <v>0.04</v>
       </c>
       <c r="C195" t="n">
-        <v>2.522714772224426</v>
+        <v>0.119120341707021</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>45041</v>
+        <v>44280</v>
       </c>
       <c r="B196" t="n">
-        <v>4.85</v>
+        <v>0.01</v>
       </c>
       <c r="C196" t="n">
-        <v>2.594298949539662</v>
+        <v>0.1051235520467162</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>45041</v>
+        <v>44280</v>
       </c>
       <c r="B197" t="n">
-        <v>5.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C197" t="n">
-        <v>2.455712903738022</v>
+        <v>0.1021495090797544</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>45041</v>
+        <v>44280</v>
       </c>
       <c r="B198" t="n">
-        <v>3.19</v>
+        <v>0.04</v>
       </c>
       <c r="C198" t="n">
-        <v>2.479353277981282</v>
+        <v>0.1018386827595532</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>45043</v>
+        <v>44280</v>
       </c>
       <c r="B199" t="n">
-        <v>5.065</v>
+        <v>0.015</v>
       </c>
       <c r="C199" t="n">
-        <v>2.477628463208676</v>
+        <v>0.1052296871505678</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>45043</v>
+        <v>44285</v>
       </c>
       <c r="B200" t="n">
-        <v>4.84</v>
+        <v>0.03</v>
       </c>
       <c r="C200" t="n">
-        <v>2.517821354568005</v>
+        <v>0.1141017440520227</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>45047</v>
+        <v>44285</v>
       </c>
       <c r="B201" t="n">
-        <v>4.35</v>
+        <v>0.02</v>
       </c>
       <c r="C201" t="n">
-        <v>2.431921806931496</v>
+        <v>0.1129449444822967</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>44285</v>
+      </c>
+      <c r="B202" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="C202" t="n">
+        <v>0.1161354855261743</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>44287</v>
+      </c>
+      <c r="B203" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="C203" t="n">
+        <v>0.108572655543685</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>44287</v>
+      </c>
+      <c r="B204" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C204" t="n">
+        <v>0.1247286589257419</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>44287</v>
+      </c>
+      <c r="B205" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="C205" t="n">
+        <v>0.108668074849993</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>44292</v>
+      </c>
+      <c r="B206" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="C206" t="n">
+        <v>0.1035543891042471</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>44292</v>
+      </c>
+      <c r="B207" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="C207" t="n">
+        <v>0.0987257143482566</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>44292</v>
+      </c>
+      <c r="B208" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="C208" t="n">
+        <v>0.1066128335893154</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>44294</v>
+      </c>
+      <c r="B209" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C209" t="n">
+        <v>0.1154131336137652</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>44294</v>
+      </c>
+      <c r="B210" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C210" t="n">
+        <v>0.1080473476648331</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>44294</v>
+      </c>
+      <c r="B211" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="C211" t="n">
+        <v>0.118905314616859</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>44299</v>
+      </c>
+      <c r="B212" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C212" t="n">
+        <v>0.1011239293217659</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>44299</v>
+      </c>
+      <c r="B213" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C213" t="n">
+        <v>0.09734645482152701</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>44299</v>
+      </c>
+      <c r="B214" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="C214" t="n">
+        <v>0.1070593706145883</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>44301</v>
+      </c>
+      <c r="B215" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="C215" t="n">
+        <v>0.1040649578906596</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>44301</v>
+      </c>
+      <c r="B216" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C216" t="n">
+        <v>0.1029810647107661</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>44301</v>
+      </c>
+      <c r="B217" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="C217" t="n">
+        <v>0.1218485447950661</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>44306</v>
+      </c>
+      <c r="B218" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C218" t="n">
+        <v>0.1180103409476578</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>44306</v>
+      </c>
+      <c r="B219" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="C219" t="n">
+        <v>0.1079501943476498</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>44306</v>
+      </c>
+      <c r="B220" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="C220" t="n">
+        <v>0.1044204788282514</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>44308</v>
+      </c>
+      <c r="B221" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="C221" t="n">
+        <v>0.1106902335211635</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>44308</v>
+      </c>
+      <c r="B222" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C222" t="n">
+        <v>0.1041649655066431</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>44308</v>
+      </c>
+      <c r="B223" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="C223" t="n">
+        <v>0.1087987101636827</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>44308</v>
+      </c>
+      <c r="B224" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="C224" t="n">
+        <v>0.1025909317471087</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>44313</v>
+      </c>
+      <c r="B225" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C225" t="n">
+        <v>0.1225363528728485</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>44313</v>
+      </c>
+      <c r="B226" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="C226" t="n">
+        <v>0.1180857022292912</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>44313</v>
+      </c>
+      <c r="B227" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="C227" t="n">
+        <v>0.1050801725499332</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>44315</v>
+      </c>
+      <c r="B228" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C228" t="n">
+        <v>0.1174617505632341</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>44315</v>
+      </c>
+      <c r="B229" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C229" t="n">
+        <v>0.1357743179425597</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>44315</v>
+      </c>
+      <c r="B230" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="C230" t="n">
+        <v>0.1103042115271092</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>44320</v>
+      </c>
+      <c r="B231" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C231" t="n">
+        <v>0.1129968381673098</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>44320</v>
+      </c>
+      <c r="B232" t="n">
+        <v>0</v>
+      </c>
+      <c r="C232" t="n">
+        <v>0.1105952915549278</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>44320</v>
+      </c>
+      <c r="B233" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="C233" t="n">
+        <v>0.09221885802224279</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>44322</v>
+      </c>
+      <c r="B234" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="C234" t="n">
+        <v>0.1052903872728348</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>44322</v>
+      </c>
+      <c r="B235" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="C235" t="n">
+        <v>0.1067363477684558</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>44322</v>
+      </c>
+      <c r="B236" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C236" t="n">
+        <v>0.1202012247219682</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>44327</v>
+      </c>
+      <c r="B237" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C237" t="n">
+        <v>0.10995247034356</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>44327</v>
+      </c>
+      <c r="B238" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C238" t="n">
+        <v>0.1047998278029263</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>44327</v>
+      </c>
+      <c r="B239" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="C239" t="n">
+        <v>0.1238208360411227</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>44329</v>
+      </c>
+      <c r="B240" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C240" t="n">
+        <v>0.1250743310712278</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>44329</v>
+      </c>
+      <c r="B241" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="C241" t="n">
+        <v>0.1043982289358974</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>44329</v>
+      </c>
+      <c r="B242" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="C242" t="n">
+        <v>0.1210558193176985</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="B243" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C243" t="n">
+        <v>0.09913708407431841</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="B244" t="n">
+        <v>0</v>
+      </c>
+      <c r="C244" t="n">
+        <v>0.1288604074344039</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="B245" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C245" t="n">
+        <v>0.1064753791317344</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>44336</v>
+      </c>
+      <c r="B246" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="C246" t="n">
+        <v>0.108219735622406</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>44336</v>
+      </c>
+      <c r="B247" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="C247" t="n">
+        <v>0.1125175497680903</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>44336</v>
+      </c>
+      <c r="B248" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="C248" t="n">
+        <v>0.1191470922343433</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>44336</v>
+      </c>
+      <c r="B249" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C249" t="n">
+        <v>0.1093690341338515</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
+        <v>44341</v>
+      </c>
+      <c r="B250" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C250" t="n">
+        <v>0.1169006811454892</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
+        <v>44341</v>
+      </c>
+      <c r="B251" t="n">
+        <v>0</v>
+      </c>
+      <c r="C251" t="n">
+        <v>0.1143174530565739</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
+        <v>44341</v>
+      </c>
+      <c r="B252" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="C252" t="n">
+        <v>0.1117376735061407</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="n">
+        <v>44343</v>
+      </c>
+      <c r="B253" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C253" t="n">
+        <v>0.1230676908232272</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
+        <v>44343</v>
+      </c>
+      <c r="B254" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="C254" t="n">
+        <v>0.1108275710791349</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="n">
+        <v>44343</v>
+      </c>
+      <c r="B255" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="C255" t="n">
+        <v>0.1093781912699342</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
+        <v>44348</v>
+      </c>
+      <c r="B256" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C256" t="n">
+        <v>0.1199347715452314</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
+        <v>44348</v>
+      </c>
+      <c r="B257" t="n">
+        <v>0</v>
+      </c>
+      <c r="C257" t="n">
+        <v>0.1213707566075027</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>44348</v>
+      </c>
+      <c r="B258" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C258" t="n">
+        <v>0.1076383354142308</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>44350</v>
+      </c>
+      <c r="B259" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="C259" t="n">
+        <v>0.1173379831016064</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>44350</v>
+      </c>
+      <c r="B260" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C260" t="n">
+        <v>0.1219338133186102</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
+        <v>44350</v>
+      </c>
+      <c r="B261" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C261" t="n">
+        <v>0.120823140386492</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>44355</v>
+      </c>
+      <c r="B262" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="C262" t="n">
+        <v>0.1015820199251175</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
+        <v>44355</v>
+      </c>
+      <c r="B263" t="n">
+        <v>0</v>
+      </c>
+      <c r="C263" t="n">
+        <v>0.1086390740051866</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
+        <v>44355</v>
+      </c>
+      <c r="B264" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="C264" t="n">
+        <v>0.1285094553232193</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
+        <v>44357</v>
+      </c>
+      <c r="B265" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C265" t="n">
+        <v>0.1101504398323596</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
+        <v>44357</v>
+      </c>
+      <c r="B266" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="C266" t="n">
+        <v>0.1160395109467209</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
+        <v>44357</v>
+      </c>
+      <c r="B267" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="C267" t="n">
+        <v>0.1149714284390211</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
+        <v>44362</v>
+      </c>
+      <c r="B268" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C268" t="n">
+        <v>0.08849799215793611</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
+        <v>44362</v>
+      </c>
+      <c r="B269" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C269" t="n">
+        <v>0.1163848129101098</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
+        <v>44362</v>
+      </c>
+      <c r="B270" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="C270" t="n">
+        <v>0.1054222500324249</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
+        <v>44364</v>
+      </c>
+      <c r="B271" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C271" t="n">
+        <v>0.125701877400279</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="n">
+        <v>44364</v>
+      </c>
+      <c r="B272" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="C272" t="n">
+        <v>0.09988706326112153</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="n">
+        <v>44364</v>
+      </c>
+      <c r="B273" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="C273" t="n">
+        <v>0.1239413887634873</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="n">
+        <v>44364</v>
+      </c>
+      <c r="B274" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="C274" t="n">
+        <v>0.1173267217725515</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="n">
+        <v>44369</v>
+      </c>
+      <c r="B275" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="C275" t="n">
+        <v>0.1079521134495735</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="n">
+        <v>44369</v>
+      </c>
+      <c r="B276" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="C276" t="n">
+        <v>0.1099772628024221</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="n">
+        <v>44369</v>
+      </c>
+      <c r="B277" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="C277" t="n">
+        <v>0.1168521872907877</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="n">
+        <v>44371</v>
+      </c>
+      <c r="B278" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="C278" t="n">
+        <v>0.1314741658046842</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="n">
+        <v>44371</v>
+      </c>
+      <c r="B279" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="C279" t="n">
+        <v>0.1001172191090882</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="n">
+        <v>44371</v>
+      </c>
+      <c r="B280" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="C280" t="n">
+        <v>0.1100355762243271</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="n">
+        <v>44376</v>
+      </c>
+      <c r="B281" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C281" t="n">
+        <v>0.108214884288609</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="n">
+        <v>44376</v>
+      </c>
+      <c r="B282" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="C282" t="n">
+        <v>0.1152935258299112</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="n">
+        <v>44376</v>
+      </c>
+      <c r="B283" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C283" t="n">
+        <v>0.1167906201630831</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="n">
+        <v>44378</v>
+      </c>
+      <c r="B284" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="C284" t="n">
+        <v>0.09611409913748503</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="n">
+        <v>44378</v>
+      </c>
+      <c r="B285" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C285" t="n">
+        <v>0.1052772945165634</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="n">
+        <v>44378</v>
+      </c>
+      <c r="B286" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C286" t="n">
+        <v>0.1076744379103184</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="n">
+        <v>44383</v>
+      </c>
+      <c r="B287" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="C287" t="n">
+        <v>0.08862895868718625</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="n">
+        <v>44383</v>
+      </c>
+      <c r="B288" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C288" t="n">
+        <v>0.1091086792200804</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="n">
+        <v>44383</v>
+      </c>
+      <c r="B289" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C289" t="n">
+        <v>0.1088310036808252</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="n">
+        <v>44385</v>
+      </c>
+      <c r="B290" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="C290" t="n">
+        <v>0.1078891240432859</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="n">
+        <v>44385</v>
+      </c>
+      <c r="B291" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C291" t="n">
+        <v>0.1136615585722029</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="n">
+        <v>44385</v>
+      </c>
+      <c r="B292" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C292" t="n">
+        <v>0.1105251712724567</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="n">
+        <v>44390</v>
+      </c>
+      <c r="B293" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="C293" t="n">
+        <v>0.1124813693389297</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="n">
+        <v>44390</v>
+      </c>
+      <c r="B294" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C294" t="n">
+        <v>0.1180187479779124</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="n">
+        <v>44390</v>
+      </c>
+      <c r="B295" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C295" t="n">
+        <v>0.1115849831327796</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="n">
+        <v>44392</v>
+      </c>
+      <c r="B296" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="C296" t="n">
+        <v>0.116062140762806</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="n">
+        <v>44392</v>
+      </c>
+      <c r="B297" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C297" t="n">
+        <v>0.09489043299108745</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="2" t="n">
+        <v>44392</v>
+      </c>
+      <c r="B298" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C298" t="n">
+        <v>0.09858750004321337</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="2" t="n">
+        <v>44392</v>
+      </c>
+      <c r="B299" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="C299" t="n">
+        <v>0.1197812628746033</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="2" t="n">
+        <v>44397</v>
+      </c>
+      <c r="B300" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C300" t="n">
+        <v>0.111948014870286</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="2" t="n">
+        <v>44397</v>
+      </c>
+      <c r="B301" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="C301" t="n">
+        <v>0.1002939810603857</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="2" t="n">
+        <v>44397</v>
+      </c>
+      <c r="B302" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C302" t="n">
+        <v>0.09652198135852814</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="B303" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="C303" t="n">
+        <v>0.1031275886297226</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="B304" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C304" t="n">
+        <v>0.1075197212770581</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="B305" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C305" t="n">
+        <v>0.1253178816661239</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="2" t="n">
+        <v>44404</v>
+      </c>
+      <c r="B306" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="C306" t="n">
+        <v>0.1107407341524959</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="2" t="n">
+        <v>44404</v>
+      </c>
+      <c r="B307" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="C307" t="n">
+        <v>0.1285836183838546</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="2" t="n">
+        <v>44404</v>
+      </c>
+      <c r="B308" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C308" t="n">
+        <v>0.09554156381636859</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="2" t="n">
+        <v>44406</v>
+      </c>
+      <c r="B309" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C309" t="n">
+        <v>0.09653363235294819</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="2" t="n">
+        <v>44406</v>
+      </c>
+      <c r="B310" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C310" t="n">
+        <v>0.1108973991125822</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="2" t="n">
+        <v>44406</v>
+      </c>
+      <c r="B311" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="C311" t="n">
+        <v>0.1082057076692581</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="2" t="n">
+        <v>44411</v>
+      </c>
+      <c r="B312" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="C312" t="n">
+        <v>0.1046965957060456</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="2" t="n">
+        <v>44411</v>
+      </c>
+      <c r="B313" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="C313" t="n">
+        <v>0.1100063513219357</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="2" t="n">
+        <v>44411</v>
+      </c>
+      <c r="B314" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C314" t="n">
+        <v>0.1151912386715412</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="2" t="n">
+        <v>44413</v>
+      </c>
+      <c r="B315" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C315" t="n">
+        <v>0.0942497841641307</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="2" t="n">
+        <v>44413</v>
+      </c>
+      <c r="B316" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="C316" t="n">
+        <v>0.1078185166791081</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="2" t="n">
+        <v>44413</v>
+      </c>
+      <c r="B317" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="C317" t="n">
+        <v>0.1058895172551274</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="B318" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C318" t="n">
+        <v>0.116301356330514</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="B319" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="C319" t="n">
+        <v>0.1233109102025628</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="B320" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C320" t="n">
+        <v>0.1132299165055156</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="2" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B321" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="C321" t="n">
+        <v>0.08717648103833199</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="2" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B322" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C322" t="n">
+        <v>0.1022481528669596</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="2" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B323" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C323" t="n">
+        <v>0.1054698086902499</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="2" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B324" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="C324" t="n">
+        <v>0.1085161345824599</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="B325" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="C325" t="n">
+        <v>0.1080217856168747</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="B326" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="C326" t="n">
+        <v>0.1075051477923989</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="B327" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="C327" t="n">
+        <v>0.1180710410699248</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="2" t="n">
+        <v>44427</v>
+      </c>
+      <c r="B328" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="C328" t="n">
+        <v>0.1082887843251228</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="2" t="n">
+        <v>44427</v>
+      </c>
+      <c r="B329" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="C329" t="n">
+        <v>0.09774648528546095</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="2" t="n">
+        <v>44427</v>
+      </c>
+      <c r="B330" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C330" t="n">
+        <v>0.09979156602174044</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="2" t="n">
+        <v>44427</v>
+      </c>
+      <c r="B331" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C331" t="n">
+        <v>0.1108023012802005</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="B332" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="C332" t="n">
+        <v>0.1040980307385325</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="B333" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="C333" t="n">
+        <v>0.1066595544666052</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="B334" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="C334" t="n">
+        <v>0.1237526543438435</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="2" t="n">
+        <v>44434</v>
+      </c>
+      <c r="B335" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C335" t="n">
+        <v>0.1074817678704858</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="2" t="n">
+        <v>44434</v>
+      </c>
+      <c r="B336" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="C336" t="n">
+        <v>0.1039438791200519</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="2" t="n">
+        <v>44434</v>
+      </c>
+      <c r="B337" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="C337" t="n">
+        <v>0.1067104837298393</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="2" t="n">
+        <v>44439</v>
+      </c>
+      <c r="B338" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="C338" t="n">
+        <v>0.1171134579181671</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="2" t="n">
+        <v>44439</v>
+      </c>
+      <c r="B339" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="C339" t="n">
+        <v>0.1194378897547722</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="2" t="n">
+        <v>44439</v>
+      </c>
+      <c r="B340" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C340" t="n">
+        <v>0.1293211867287755</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="2" t="n">
+        <v>44441</v>
+      </c>
+      <c r="B341" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="C341" t="n">
+        <v>0.1126236361637712</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="2" t="n">
+        <v>44441</v>
+      </c>
+      <c r="B342" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="C342" t="n">
+        <v>0.1028831905126572</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="2" t="n">
+        <v>44441</v>
+      </c>
+      <c r="B343" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="C343" t="n">
+        <v>0.1194880981370807</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="2" t="n">
+        <v>44446</v>
+      </c>
+      <c r="B344" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="C344" t="n">
+        <v>0.1075874451175332</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="2" t="n">
+        <v>44446</v>
+      </c>
+      <c r="B345" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="C345" t="n">
+        <v>0.1225119208544493</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="2" t="n">
+        <v>44446</v>
+      </c>
+      <c r="B346" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="C346" t="n">
+        <v>0.107693745829165</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="2" t="n">
+        <v>44448</v>
+      </c>
+      <c r="B347" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="C347" t="n">
+        <v>0.1226800030097366</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="2" t="n">
+        <v>44448</v>
+      </c>
+      <c r="B348" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C348" t="n">
+        <v>0.09917168635874987</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="2" t="n">
+        <v>44448</v>
+      </c>
+      <c r="B349" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="C349" t="n">
+        <v>0.1139105255156756</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="2" t="n">
+        <v>44448</v>
+      </c>
+      <c r="B350" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C350" t="n">
+        <v>0.1243165390938521</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="2" t="n">
+        <v>44453</v>
+      </c>
+      <c r="B351" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="C351" t="n">
+        <v>0.1215962656959891</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="2" t="n">
+        <v>44453</v>
+      </c>
+      <c r="B352" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="C352" t="n">
+        <v>0.1239534489065409</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="2" t="n">
+        <v>44453</v>
+      </c>
+      <c r="B353" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="C353" t="n">
+        <v>0.1161138688400388</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="2" t="n">
+        <v>44455</v>
+      </c>
+      <c r="B354" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="C354" t="n">
+        <v>0.1192357508465648</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="2" t="n">
+        <v>44455</v>
+      </c>
+      <c r="B355" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C355" t="n">
+        <v>0.1144548490643501</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="2" t="n">
+        <v>44460</v>
+      </c>
+      <c r="B356" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="C356" t="n">
+        <v>0.1062667328119278</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="2" t="n">
+        <v>44460</v>
+      </c>
+      <c r="B357" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="C357" t="n">
+        <v>0.1091322734579444</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="2" t="n">
+        <v>44460</v>
+      </c>
+      <c r="B358" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="C358" t="n">
+        <v>0.130584637708962</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="2" t="n">
+        <v>44462</v>
+      </c>
+      <c r="B359" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="C359" t="n">
+        <v>0.1197600066289306</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="2" t="n">
+        <v>44462</v>
+      </c>
+      <c r="B360" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="C360" t="n">
+        <v>0.1143255580961704</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="2" t="n">
+        <v>44467</v>
+      </c>
+      <c r="B361" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="C361" t="n">
+        <v>0.1075195848941803</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="2" t="n">
+        <v>44467</v>
+      </c>
+      <c r="B362" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C362" t="n">
+        <v>0.1145060121268034</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="2" t="n">
+        <v>44467</v>
+      </c>
+      <c r="B363" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="C363" t="n">
+        <v>0.1203046029433608</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="2" t="n">
+        <v>44469</v>
+      </c>
+      <c r="B364" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C364" t="n">
+        <v>0.1232488949596882</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="2" t="n">
+        <v>44469</v>
+      </c>
+      <c r="B365" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="C365" t="n">
+        <v>0.1220572008565068</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="2" t="n">
+        <v>44474</v>
+      </c>
+      <c r="B366" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C366" t="n">
+        <v>0.1223747781291604</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="2" t="n">
+        <v>44474</v>
+      </c>
+      <c r="B367" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="C367" t="n">
+        <v>0.1288352935016155</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="2" t="n">
+        <v>44474</v>
+      </c>
+      <c r="B368" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="C368" t="n">
+        <v>0.1379753622412682</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="2" t="n">
+        <v>44476</v>
+      </c>
+      <c r="B369" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="C369" t="n">
+        <v>0.1134138970077038</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="2" t="n">
+        <v>44476</v>
+      </c>
+      <c r="B370" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="C370" t="n">
+        <v>0.124022595025599</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="2" t="n">
+        <v>44476</v>
+      </c>
+      <c r="B371" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="C371" t="n">
+        <v>0.1192992857843638</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="2" t="n">
+        <v>44476</v>
+      </c>
+      <c r="B372" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C372" t="n">
+        <v>0.1425973779708147</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="2" t="n">
+        <v>44481</v>
+      </c>
+      <c r="B373" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="C373" t="n">
+        <v>0.129556778408587</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="2" t="n">
+        <v>44481</v>
+      </c>
+      <c r="B374" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="C374" t="n">
+        <v>0.1287390656396747</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="2" t="n">
+        <v>44481</v>
+      </c>
+      <c r="B375" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="C375" t="n">
+        <v>0.1105265156179667</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="2" t="n">
+        <v>44482</v>
+      </c>
+      <c r="B376" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C376" t="n">
+        <v>0.1252227253839374</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="2" t="n">
+        <v>44483</v>
+      </c>
+      <c r="B377" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C377" t="n">
+        <v>0.1334125171974301</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="2" t="n">
+        <v>44483</v>
+      </c>
+      <c r="B378" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="C378" t="n">
+        <v>0.1156306837871671</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="2" t="n">
+        <v>44487</v>
+      </c>
+      <c r="B379" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="C379" t="n">
+        <v>0.1295617271587253</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="2" t="n">
+        <v>44488</v>
+      </c>
+      <c r="B380" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="C380" t="n">
+        <v>0.1339028331264853</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="2" t="n">
+        <v>44488</v>
+      </c>
+      <c r="B381" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="C381" t="n">
+        <v>0.1440183122083545</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="2" t="n">
+        <v>44488</v>
+      </c>
+      <c r="B382" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C382" t="n">
+        <v>0.1390420711785555</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="2" t="n">
+        <v>44490</v>
+      </c>
+      <c r="B383" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="C383" t="n">
+        <v>0.1274766472727061</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="2" t="n">
+        <v>44490</v>
+      </c>
+      <c r="B384" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="C384" t="n">
+        <v>0.150829019844532</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="2" t="n">
+        <v>44490</v>
+      </c>
+      <c r="B385" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="C385" t="n">
+        <v>0.1481168125197292</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="B386" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="C386" t="n">
+        <v>0.1034912633150816</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="2" t="n">
+        <v>44495</v>
+      </c>
+      <c r="B387" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C387" t="n">
+        <v>0.1212351822853088</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="2" t="n">
+        <v>44495</v>
+      </c>
+      <c r="B388" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="C388" t="n">
+        <v>0.1304458973556757</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="2" t="n">
+        <v>44495</v>
+      </c>
+      <c r="B389" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C389" t="n">
+        <v>0.1282921389490366</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="2" t="n">
+        <v>44497</v>
+      </c>
+      <c r="B390" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="C390" t="n">
+        <v>0.1214581098407507</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="2" t="n">
+        <v>44497</v>
+      </c>
+      <c r="B391" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="C391" t="n">
+        <v>0.1459318029507995</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="2" t="n">
+        <v>44497</v>
+      </c>
+      <c r="B392" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C392" t="n">
+        <v>0.1523698541149497</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="2" t="n">
+        <v>44502</v>
+      </c>
+      <c r="B393" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="C393" t="n">
+        <v>0.1450173362717033</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="2" t="n">
+        <v>44502</v>
+      </c>
+      <c r="B394" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="C394" t="n">
+        <v>0.1333531906455755</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="2" t="n">
+        <v>44502</v>
+      </c>
+      <c r="B395" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="C395" t="n">
+        <v>0.1196704225614667</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="2" t="n">
+        <v>44504</v>
+      </c>
+      <c r="B396" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C396" t="n">
+        <v>0.128912232927978</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="2" t="n">
+        <v>44504</v>
+      </c>
+      <c r="B397" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="C397" t="n">
+        <v>0.1338385578244925</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="2" t="n">
+        <v>44504</v>
+      </c>
+      <c r="B398" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="C398" t="n">
+        <v>0.1471798621490598</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="2" t="n">
+        <v>44509</v>
+      </c>
+      <c r="B399" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="C399" t="n">
+        <v>0.1378579950332642</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="2" t="n">
+        <v>44509</v>
+      </c>
+      <c r="B400" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="C400" t="n">
+        <v>0.1308928240463138</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="2" t="n">
+        <v>44509</v>
+      </c>
+      <c r="B401" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="C401" t="n">
+        <v>0.1409687131270767</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="2" t="n">
+        <v>44512</v>
+      </c>
+      <c r="B402" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="C402" t="n">
+        <v>0.1460009880363941</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="2" t="n">
+        <v>44512</v>
+      </c>
+      <c r="B403" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="C403" t="n">
+        <v>0.144023202508688</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="2" t="n">
+        <v>44516</v>
+      </c>
+      <c r="B404" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="C404" t="n">
+        <v>0.1359791650250554</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="2" t="n">
+        <v>44516</v>
+      </c>
+      <c r="B405" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C405" t="n">
+        <v>0.1667096564546228</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="2" t="n">
+        <v>44516</v>
+      </c>
+      <c r="B406" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="C406" t="n">
+        <v>0.1571866830438376</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="2" t="n">
+        <v>44518</v>
+      </c>
+      <c r="B407" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="C407" t="n">
+        <v>0.1339863968640566</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="2" t="n">
+        <v>44518</v>
+      </c>
+      <c r="B408" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="C408" t="n">
+        <v>0.1395072731748223</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="2" t="n">
+        <v>44518</v>
+      </c>
+      <c r="B409" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="C409" t="n">
+        <v>0.1201097312942147</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="2" t="n">
+        <v>44523</v>
+      </c>
+      <c r="B410" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="C410" t="n">
+        <v>0.138868221975863</v>
       </c>
     </row>
   </sheetData>
